--- a/Experiment01_Resumo/Resumo_P01_.xlsx
+++ b/Experiment01_Resumo/Resumo_P01_.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="Resumo DatabaseSnowballing" sheetId="8" r:id="rId2"/>
     <sheet name="SearchResults" sheetId="9" r:id="rId3"/>
     <sheet name="Seed Set" sheetId="5" r:id="rId4"/>
-    <sheet name="Scopus" sheetId="10" r:id="rId5"/>
-    <sheet name="Plan2" sheetId="12" r:id="rId6"/>
-    <sheet name="RQ" sheetId="11" r:id="rId7"/>
+    <sheet name="RQ" sheetId="11" r:id="rId5"/>
+    <sheet name="Scopus" sheetId="10" r:id="rId6"/>
+    <sheet name="Plan2" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
   <si>
     <t>Database search</t>
   </si>
@@ -836,30 +836,7 @@
     <t xml:space="preserve">Paper Name </t>
   </si>
   <si>
-    <t>Research Question 1) Qual das bibliotecas digitais é mais eficiente?</t>
-  </si>
-  <si>
-    <t>A estratégia híbrida envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
-A estratégia híbrida recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
-  </si>
-  <si>
     <t>Biblioteca Digital</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/22 = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/17 = </t>
-  </si>
-  <si>
-    <t>RQ1) Qual busca em biblioteca digital encontra mais artigos incluídos na lista de selecionados da SLR publicada dentre o resultado retornado na busca?
-RQ2) Qual busca em biblioteca digital recupera todos os artigos que estavam incluídos na lista de selecionados da SRL publicada?</t>
   </si>
   <si>
     <t>Ameaça à validade: 1) a busca que realizo limitada a 2015, no forward temos somente busca por filtro de até o ano de 2015. No primeiro backward, pode ser que seja eliminada alguma referencia retornada na busca e não lida. 2) As estrategias estão em loop com o repeat. 3) 
@@ -869,6 +846,128 @@
     <t>1) um artigo de 2017 cita no forward um de 2015. Deve ser selecionado?
 2) Artigos selecionados no forward deveriam ser somente em ingles; Existem em russo, espanhol, japones.
 3) Tese deveria ser selecionada? Qual critério? 4)No forward de  albuquerque2009a tivemos 5 artigos( 4 existentes e 1 incluído), como eu visualizo essa informação?</t>
+  </si>
+  <si>
+    <t>JF tool</t>
+  </si>
+  <si>
+    <t>Qtd Ref encontrado no Scopus</t>
+  </si>
+  <si>
+    <t>0/128= 0</t>
+  </si>
+  <si>
+    <t>0/22=0</t>
+  </si>
+  <si>
+    <t>RQ1.1) Qual busca em biblioteca digital encontra mais artigos incluídos na lista de selecionados da SLR publicada dentre o resultado retornado na busca?
+RQ1.2) Qual busca em biblioteca digital recupera todos os artigos que estavam incluídos na lista de selecionados da SRL publicada?</t>
+  </si>
+  <si>
+    <t>Research Question 1) Qual das bibliotecas digitais utilizadas na SLR publicada é mais eficiente?</t>
+  </si>
+  <si>
+    <t>Research Questions</t>
+  </si>
+  <si>
+    <t>7/16= 43%</t>
+  </si>
+  <si>
+    <t>5/10= 50%</t>
+  </si>
+  <si>
+    <t>1/182= 0,5%</t>
+  </si>
+  <si>
+    <t>1/103= 0,98%</t>
+  </si>
+  <si>
+    <t>7/22= 31,8%</t>
+  </si>
+  <si>
+    <t>5/22= 22,7%</t>
+  </si>
+  <si>
+    <t>1/22= 4,5%</t>
+  </si>
+  <si>
+    <t>RQ2.1)A estratégia híbrida envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
+RQ2.2)A estratégia híbrida recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
+  </si>
+  <si>
+    <t>Busca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowballing </t>
+  </si>
+  <si>
+    <t>Guideline 2014</t>
+  </si>
+  <si>
+    <t>Short Paper 2017</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>Código Snowballing</t>
+  </si>
+  <si>
+    <t>ID Estratégia</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Todas Bibliotecas Digitais</t>
+  </si>
+  <si>
+    <t>Estratégia Somente Busca</t>
+  </si>
+  <si>
+    <t>SFBU</t>
+  </si>
+  <si>
+    <t>S2FFBB2U</t>
+  </si>
+  <si>
+    <t>BBFF</t>
+  </si>
+  <si>
+    <t>FFBB</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Estratégia Híbrida (Busca + Snowballing)</t>
+  </si>
+  <si>
+    <t>Research Question 3) Qual das estratégias é mais eficiente?</t>
+  </si>
+  <si>
+    <t>Research Question 2) Qual das estratégias híbridas é mais eficiente?</t>
+  </si>
+  <si>
+    <t>JF new BF 2018</t>
+  </si>
+  <si>
+    <t>JF new FB 2018</t>
   </si>
 </sst>
 </file>
@@ -1013,12 +1112,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1065,8 +1158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1327,68 +1426,103 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1398,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1512,35 +1646,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1561,22 +1674,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,10 +1718,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,16 +1752,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1657,27 +1770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,38 +1827,89 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2062,22 +2205,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="103"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="103"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2112,10 +2255,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="121"/>
+      <c r="B8" s="105"/>
     </row>
     <row r="9" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -2195,10 +2338,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="127"/>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -2231,16 +2374,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="123"/>
+      <c r="B6" s="107"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="125"/>
+      <c r="B7" s="109"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2304,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,17 +2466,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
@@ -2696,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,19 +2851,21 @@
     <col min="4" max="4" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>125</v>
       </c>
@@ -2738,6 +2883,9 @@
       </c>
       <c r="F2" s="29" t="s">
         <v>148</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,9 +2907,10 @@
       <c r="F3" s="7">
         <v>25</v>
       </c>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -2779,12 +2928,12 @@
       <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="103">
+      <c r="G4" s="96">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2802,12 +2951,12 @@
       <c r="F5" s="7">
         <v>24</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="96">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -2825,10 +2974,10 @@
       <c r="F6" s="7">
         <v>57</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -2846,12 +2995,12 @@
       <c r="F7" s="5">
         <v>11</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="73">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2869,7 +3018,7 @@
       <c r="F8" s="5">
         <v>22</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2890,9 +3039,10 @@
       <c r="F9" s="5">
         <v>13</v>
       </c>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2910,7 +3060,7 @@
       <c r="F10" s="5">
         <v>43</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="73">
         <v>43</v>
       </c>
     </row>
@@ -2933,6 +3083,7 @@
       <c r="F11" s="5">
         <v>11</v>
       </c>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2953,6 +3104,7 @@
       <c r="F12" s="6">
         <v>37</v>
       </c>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -2973,9 +3125,10 @@
       <c r="F13" s="5">
         <v>16</v>
       </c>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -2993,12 +3146,12 @@
       <c r="F14" s="5">
         <v>14</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="73">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -3016,12 +3169,12 @@
       <c r="F15" s="5">
         <v>8</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="73">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="33" t="s">
@@ -3039,12 +3192,12 @@
       <c r="F16" s="5">
         <v>27</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="73">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -3062,7 +3215,7 @@
       <c r="F17" s="5">
         <v>14</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17" s="73">
         <v>14</v>
       </c>
     </row>
@@ -3085,9 +3238,10 @@
       <c r="F18" s="5">
         <v>8</v>
       </c>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3105,10 +3259,10 @@
       <c r="F19" s="5">
         <v>15</v>
       </c>
-      <c r="G19" s="104"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -3126,7 +3280,7 @@
       <c r="F20" s="5">
         <v>18</v>
       </c>
-      <c r="G20" s="104"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -3147,9 +3301,10 @@
       <c r="F21" s="5">
         <v>22</v>
       </c>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3167,7 +3322,7 @@
       <c r="F22" s="5">
         <v>15</v>
       </c>
-      <c r="G22" s="104"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -3188,6 +3343,7 @@
       <c r="F23" s="5">
         <v>11</v>
       </c>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -3208,6 +3364,7 @@
       <c r="F24" s="5">
         <v>33</v>
       </c>
+      <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
@@ -3217,7 +3374,7 @@
         <f>SUM(F3:F24)</f>
         <v>464</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="70">
         <f>SUM(G3:G24)</f>
         <v>161</v>
       </c>
@@ -3235,7 +3392,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3243,712 +3400,1195 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="6" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+    </row>
+    <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+    </row>
+    <row r="5" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="139"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="139"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="139"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="139"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="139"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="140"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+    </row>
+    <row r="14" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+    </row>
+    <row r="24" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-    </row>
-    <row r="2" spans="1:14" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+    </row>
+    <row r="2" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="72" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="H4" s="72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="78" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="77">
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74">
         <v>20</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="129" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:14" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="77">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74">
         <v>24</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="130" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="32" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="78" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="H8" s="74"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="77">
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74">
         <v>11</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="129" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="94" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="78" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="94" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="78" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="53" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="H11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="111">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="125">
         <v>44</v>
       </c>
-      <c r="G12" s="107" t="s">
+      <c r="G12" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="129" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="94" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="78" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="94" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="94" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="78" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="77">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74">
         <v>14</v>
       </c>
-      <c r="G16" s="106" t="s">
+      <c r="G16" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="129" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="77">
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74">
         <v>8</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="129" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="59" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="77">
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74">
         <v>27</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="H18" s="129" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="59" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="77">
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74">
         <v>14</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="129" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="94" t="s">
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="78" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="8" t="s">
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="8" t="s">
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="78" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="8" t="s">
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="78" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="8" t="s">
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="78" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="8" t="s">
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="78" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="8" t="s">
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="78" t="s">
         <v>92</v>
       </c>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="106">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="126">
         <f>SUM(F5:F26)</f>
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="76" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="82"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="75"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="75"/>
-      <c r="F29" s="69" t="s">
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="68"/>
+      <c r="I29" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="120"/>
+      <c r="C30" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="I30" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="74">
+        <v>17</v>
+      </c>
+      <c r="K30" s="86"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="120" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="120"/>
+      <c r="C31" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="I31" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" s="74">
+        <v>22</v>
+      </c>
+      <c r="K31" s="73"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="120"/>
+      <c r="C32" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="I32" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" s="73">
+        <v>8</v>
+      </c>
+      <c r="K32" s="73"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="I33" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" s="73">
+        <v>14</v>
+      </c>
+      <c r="K33" s="73"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="98"/>
+      <c r="I34" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="74"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="74"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="85"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" s="79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" s="82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" s="82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" s="74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="I44" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44" s="97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="J47" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="I29" s="132" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="F30" s="70" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I48" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="62">
+      <c r="J48" s="55">
         <v>22</v>
       </c>
-      <c r="I30" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="J30" s="81">
-        <v>17</v>
-      </c>
-      <c r="K30" s="93"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="135" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="89" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="F31" s="71" t="s">
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="G31" s="63">
+      <c r="J49" s="56">
         <v>8</v>
       </c>
-      <c r="I31" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="81">
-        <v>22</v>
-      </c>
-      <c r="K31" s="80"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="89" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="F32" s="70" t="s">
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="62">
+      <c r="J50" s="55">
         <v>14</v>
       </c>
-      <c r="I32" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="J32" s="80">
-        <v>8</v>
-      </c>
-      <c r="K32" s="80"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="137" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="114"/>
-      <c r="F33" s="71" t="s">
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="J51" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="I33" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="J33" s="80">
-        <v>14</v>
-      </c>
-      <c r="K33" s="80"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="114"/>
-      <c r="F34" s="70" t="s">
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="64">
+      <c r="J52" s="57">
         <v>12</v>
       </c>
-      <c r="I34" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="K34" s="81"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="71" t="s">
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="65">
+      <c r="J53" s="58">
         <v>0</v>
       </c>
-      <c r="I35" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="81"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F36" s="70" t="s">
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="72" t="s">
+      <c r="J54" s="59"/>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="67">
+      <c r="J55" s="60">
         <v>10</v>
       </c>
-      <c r="I37" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="73" t="s">
+    </row>
+    <row r="56" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="68">
+      <c r="J56" s="61">
         <v>12</v>
-      </c>
-      <c r="I38" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="K38" s="88" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="K39" s="89" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="J40" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="K40" s="89" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="J41" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="K41" s="89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="I42" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="J42" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="K42" s="81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="I44" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="J44" s="113" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3959,22 +4599,22 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,177 +4623,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>252</v>
+      <c r="A1" s="51" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>253</v>
+      <c r="A4" s="95" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="142" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A3:S4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Experiment01_Resumo/Resumo_P01_.xlsx
+++ b/Experiment01_Resumo/Resumo_P01_.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
   <si>
     <t>Database search</t>
   </si>
@@ -968,6 +968,10 @@
   </si>
   <si>
     <t>JF new FB 2018</t>
+  </si>
+  <si>
+    <t>RQ2.1)A estratégia envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
+RQ2.2)A estratégia recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1742,7 +1746,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1779,6 +1782,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,12 +1854,48 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1842,75 +1905,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2205,22 +2212,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="110"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="110"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2255,10 +2262,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="112"/>
     </row>
     <row r="9" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -2327,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2338,10 +2345,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="118"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -2374,16 +2381,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="107"/>
+      <c r="B6" s="114"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="116"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2447,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2466,17 +2473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
@@ -2839,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,15 +2862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -2884,7 +2891,7 @@
       <c r="F2" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="105" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2928,7 +2935,7 @@
       <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="95">
         <v>20</v>
       </c>
     </row>
@@ -2951,7 +2958,7 @@
       <c r="F5" s="7">
         <v>24</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="95">
         <v>24</v>
       </c>
     </row>
@@ -2974,7 +2981,7 @@
       <c r="F6" s="7">
         <v>57</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3402,13 +3409,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
@@ -3416,78 +3423,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="128" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
     </row>
     <row r="5" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="74" t="s">
@@ -3496,13 +3503,13 @@
       <c r="C6" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="124" t="s">
         <v>274</v>
       </c>
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -3511,10 +3518,10 @@
       <c r="C7" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="139"/>
+      <c r="D7" s="125"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="74" t="s">
@@ -3523,10 +3530,10 @@
       <c r="C8" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="139"/>
+      <c r="D8" s="125"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="74" t="s">
@@ -3535,10 +3542,10 @@
       <c r="C9" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="139"/>
+      <c r="D9" s="125"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="74" t="s">
@@ -3547,10 +3554,10 @@
       <c r="C10" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="139"/>
+      <c r="D10" s="125"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="74" t="s">
@@ -3559,84 +3566,84 @@
       <c r="C11" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="125"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
-      <c r="D12" s="140"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="D12" s="126"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="99" t="s">
+      <c r="F16" s="98" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="144" t="s">
         <v>275</v>
       </c>
       <c r="B17" s="70" t="s">
@@ -3648,11 +3655,15 @@
       <c r="D17" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
+      <c r="E17" s="143">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F17" s="142">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="144" t="s">
         <v>271</v>
       </c>
       <c r="B18" s="70" t="s">
@@ -3664,11 +3675,11 @@
       <c r="D18" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="144" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="70" t="s">
@@ -3680,11 +3691,15 @@
       <c r="D19" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="143">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F19" s="142">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="144" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="70" t="s">
@@ -3696,11 +3711,15 @@
       <c r="D20" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="E20" s="143">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F20" s="142">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="144" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="70" t="s">
@@ -3712,11 +3731,15 @@
       <c r="D21" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="E21" s="143">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F21" s="142">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="144" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="70" t="s">
@@ -3728,107 +3751,135 @@
       <c r="D22" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="136" t="s">
+      <c r="E22" s="143">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F22" s="142">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
     </row>
     <row r="24" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
+      <c r="A24" s="123" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="98" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
+      <c r="B26" s="142">
+        <v>0.47</v>
+      </c>
+      <c r="C26" s="142">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="143">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C27" s="142">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="143">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C29" s="142">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="143">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C30" s="142">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="143">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C31" s="142">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="143">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C32" s="142">
+        <v>0.54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3839,7 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -3857,16 +3908,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
       <c r="K1" s="68"/>
@@ -3875,16 +3926,16 @@
       <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="67"/>
       <c r="J2" s="67"/>
       <c r="K2" s="67"/>
@@ -3893,16 +3944,16 @@
       <c r="N2" s="67"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
@@ -3935,7 +3986,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="74"/>
@@ -3951,7 +4002,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="74"/>
@@ -3959,10 +4010,10 @@
       <c r="F6" s="74">
         <v>20</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="103" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3971,7 +4022,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="74"/>
@@ -3979,10 +4030,10 @@
       <c r="F7" s="74">
         <v>24</v>
       </c>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="104" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3991,7 +4042,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="74"/>
@@ -4007,7 +4058,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="53"/>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="74"/>
@@ -4015,10 +4066,10 @@
       <c r="F9" s="74">
         <v>11</v>
       </c>
-      <c r="G9" s="128" t="s">
+      <c r="G9" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="129" t="s">
+      <c r="H9" s="103" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4027,7 +4078,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="53"/>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="74"/>
@@ -4043,7 +4094,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="53"/>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="74"/>
@@ -4059,18 +4110,18 @@
         <v>42</v>
       </c>
       <c r="B12" s="53"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="74"/>
-      <c r="F12" s="125">
+      <c r="F12" s="99">
         <v>44</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="103" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4079,7 +4130,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="53"/>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="74"/>
@@ -4095,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="53"/>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="74"/>
@@ -4111,7 +4162,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="53"/>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="74"/>
@@ -4127,7 +4178,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="53"/>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="74"/>
@@ -4135,10 +4186,10 @@
       <c r="F16" s="74">
         <v>14</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="103" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4147,7 +4198,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="53"/>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="74"/>
@@ -4155,10 +4206,10 @@
       <c r="F17" s="74">
         <v>8</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="103" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4167,7 +4218,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="53"/>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="74"/>
@@ -4175,10 +4226,10 @@
       <c r="F18" s="74">
         <v>27</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="129" t="s">
+      <c r="H18" s="103" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4187,7 +4238,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="53"/>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="101" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="74"/>
@@ -4195,10 +4246,10 @@
       <c r="F19" s="74">
         <v>14</v>
       </c>
-      <c r="G19" s="128" t="s">
+      <c r="G19" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="129" t="s">
+      <c r="H19" s="103" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4207,7 +4258,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="53"/>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="74"/>
@@ -4223,7 +4274,7 @@
         <v>51</v>
       </c>
       <c r="B21" s="53"/>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="74"/>
@@ -4239,7 +4290,7 @@
         <v>52</v>
       </c>
       <c r="B22" s="53"/>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="74"/>
@@ -4255,7 +4306,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="74"/>
@@ -4271,7 +4322,7 @@
         <v>54</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="74"/>
@@ -4287,7 +4338,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="53"/>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="74"/>
@@ -4303,7 +4354,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="53"/>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="74"/>
@@ -4320,7 +4371,7 @@
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
-      <c r="F27" s="126">
+      <c r="F27" s="100">
         <f>SUM(F5:F26)</f>
         <v>162</v>
       </c>
@@ -4331,23 +4382,23 @@
       <c r="F28" s="75"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="68"/>
-      <c r="I29" s="118" t="s">
+      <c r="I29" s="137" t="s">
         <v>205</v>
       </c>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="120"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="74" t="s">
         <v>204</v>
       </c>
@@ -4361,10 +4412,10 @@
       <c r="K30" s="86"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="120"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="82" t="s">
         <v>239</v>
       </c>
@@ -4378,10 +4429,10 @@
       <c r="K31" s="73"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="120"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="82" t="s">
         <v>240</v>
       </c>
@@ -4395,14 +4446,14 @@
       <c r="K32" s="73"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117" t="s">
+      <c r="B33" s="131"/>
+      <c r="C33" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="98"/>
+      <c r="D33" s="97"/>
       <c r="I33" s="84" t="s">
         <v>208</v>
       </c>
@@ -4412,14 +4463,14 @@
       <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="98"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="97"/>
       <c r="I34" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="J34" s="88" t="s">
+      <c r="J34" s="87" t="s">
         <v>237</v>
       </c>
       <c r="K34" s="74"/>
@@ -4428,7 +4479,7 @@
       <c r="I35" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="J35" s="88" t="s">
+      <c r="J35" s="87" t="s">
         <v>238</v>
       </c>
       <c r="K35" s="74"/>
@@ -4450,7 +4501,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="93" t="s">
+      <c r="I38" s="92" t="s">
         <v>212</v>
       </c>
       <c r="J38" s="78" t="s">
@@ -4461,10 +4512,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="92" t="s">
+      <c r="I39" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="J39" s="88" t="s">
+      <c r="J39" s="87" t="s">
         <v>236</v>
       </c>
       <c r="K39" s="82" t="s">
@@ -4472,10 +4523,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="92" t="s">
+      <c r="I40" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="J40" s="88" t="s">
+      <c r="J40" s="87" t="s">
         <v>230</v>
       </c>
       <c r="K40" s="82" t="s">
@@ -4483,10 +4534,10 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="91" t="s">
+      <c r="I41" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="J41" s="89" t="s">
+      <c r="J41" s="88" t="s">
         <v>235</v>
       </c>
       <c r="K41" s="82" t="s">
@@ -4494,10 +4545,10 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="I42" s="94" t="s">
+      <c r="I42" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J42" s="90" t="s">
+      <c r="J42" s="89" t="s">
         <v>241</v>
       </c>
       <c r="K42" s="74" t="s">
@@ -4505,10 +4556,10 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="I44" s="95" t="s">
+      <c r="I44" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="J44" s="97" t="s">
+      <c r="J44" s="96" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4628,7 +4679,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="94" t="s">
         <v>246</v>
       </c>
     </row>

--- a/Experiment01_Resumo/Resumo_P01_.xlsx
+++ b/Experiment01_Resumo/Resumo_P01_.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="Resumo DatabaseSnowballing" sheetId="8" r:id="rId2"/>
     <sheet name="SearchResults" sheetId="9" r:id="rId3"/>
     <sheet name="Seed Set" sheetId="5" r:id="rId4"/>
-    <sheet name="RQ" sheetId="11" r:id="rId5"/>
+    <sheet name="ResearchQuestions" sheetId="11" r:id="rId5"/>
     <sheet name="Scopus" sheetId="10" r:id="rId6"/>
-    <sheet name="Plan2" sheetId="12" r:id="rId7"/>
+    <sheet name="GoogleScholar" sheetId="13" r:id="rId7"/>
+    <sheet name="Threats" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="301">
   <si>
     <t>Database search</t>
   </si>
@@ -102,9 +103,6 @@
   </si>
   <si>
     <t>Science Direct</t>
-  </si>
-  <si>
-    <t>Publisher</t>
   </si>
   <si>
     <t>S1</t>
@@ -585,9 +583,6 @@
     <t xml:space="preserve">TITLE-ABS-KEY(("software process improvement") AND ("business goal" OR "strategic" OR "goal oriented" OR "business oriented" OR "business strategy") AND ("alignment" OR "in line with" OR "geared to" OR "aligned with" OR "linking") AND ("method" OR "approach" OR "framework" OR "methodology")) AND PUBYEAR &lt; 2016 </t>
   </si>
   <si>
-    <t>3 são proceeding de conferencia</t>
-  </si>
-  <si>
     <t>11 estavam repetidos e 2 estavam sem autor.</t>
   </si>
   <si>
@@ -973,12 +968,57 @@
     <t>RQ2.1)A estratégia envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
 RQ2.2)A estratégia recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
   </si>
+  <si>
+    <t>337 mas limitado a Subdiscipline = Software Engineering and pub year 2015, temos 141</t>
+  </si>
+  <si>
+    <t>141 mas limitado a ACM temos 109.</t>
+  </si>
+  <si>
+    <t>2/22=9%</t>
+  </si>
+  <si>
+    <t>2/26= 7,6%</t>
+  </si>
+  <si>
+    <t>Alterar a estrategias guideline e short paper para primeiro executar backward.</t>
+  </si>
+  <si>
+    <t>Incluídos com o aliases - buscar com JF e remover</t>
+  </si>
+  <si>
+    <t>Utilizei a mesma query do IEEE (reduzida)</t>
+  </si>
+  <si>
+    <t>Limitado a 2015</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com.br/scholar?q=%28%28%22software+process+improvement%22%29+AND+%28%22business+goal%22%29+AND+%28%22alignment%22+OR+%22in+line+with%22%29+AND+%28%22method%22+OR+%22approach%22%29%29&amp;hl=pt-BR&amp;as_sdt=0%2C5&amp;as_ylo=&amp;as_yhi=2015</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>4/40= 10%</t>
+  </si>
+  <si>
+    <t>4/22= 18%</t>
+  </si>
+  <si>
+    <t>(Google Scholar para Guideline)</t>
+  </si>
+  <si>
+    <t>Duas páginas, cada uma com 20 resultados, organizados por relevância</t>
+  </si>
+  <si>
+    <t>3 são proceeding de conferencia.Nas evidências de Vasc. temos 18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,8 +1092,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,6 +1215,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1532,11 +1585,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1631,7 +1685,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1806,6 +1859,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1857,6 +1928,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,20 +1982,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2201,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2212,107 +2292,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="115"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="108"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="B2" s="117"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="110"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="117"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="119"/>
     </row>
     <row r="9" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,10 +2425,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="118"/>
+      <c r="A1" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -2363,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,23 +2454,23 @@
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="114"/>
+      <c r="A6" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="121"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="116"/>
+      <c r="A7" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="123"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2452,391 +2532,381 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17" style="16" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="54.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="16"/>
+    <col min="6" max="6" width="41.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="F2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="77">
+        <v>15</v>
+      </c>
+      <c r="C3" s="44">
+        <v>20</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="44">
+        <v>17</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="44">
+        <v>10</v>
+      </c>
+      <c r="C4" s="44">
+        <v>10</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44">
+        <v>10</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="44">
+        <v>13</v>
+      </c>
+      <c r="C5" s="44">
+        <v>20</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="44">
+        <v>16</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="49">
+        <v>100</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="49">
+        <v>103</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="44">
+        <v>43</v>
+      </c>
+      <c r="C7" s="44">
+        <v>26</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44">
+        <v>26</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="G7" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="49">
+        <v>141</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="49">
+        <v>128</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="44">
+        <v>195</v>
+      </c>
+      <c r="C9" s="44">
+        <v>189</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="44">
+        <v>182</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="45">
-        <v>15</v>
-      </c>
-      <c r="C3" s="50">
-        <v>20</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="45">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="45">
-        <v>10</v>
-      </c>
-      <c r="C4" s="50">
-        <v>10</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="45">
-        <v>13</v>
-      </c>
-      <c r="C5" s="50">
-        <v>20</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="45">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="45">
-        <v>100</v>
-      </c>
-      <c r="C6" s="45">
-        <v>141</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="45">
-        <v>103</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="45">
-        <v>43</v>
-      </c>
-      <c r="C7" s="45">
-        <v>26</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="45">
-        <v>141</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="45">
-        <v>128</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="45">
-        <v>195</v>
-      </c>
-      <c r="C9" s="45">
-        <v>189</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="45">
-        <v>182</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>156</v>
-      </c>
+      <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="11">
+      <c r="B10" s="155">
         <f>SUM(B3:B9)</f>
         <v>517</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="E10" s="11">
+      <c r="C10" s="155"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="155">
         <f>SUM(E3:E9)</f>
         <v>482</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="16"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="16"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="16"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33" s="16"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H7" display="http://ieeexplore.ieee.org/search/searchresult.jsp?action=search&amp;matchBoolean=true&amp;searchField=Search_All_Text&amp;queryText=(((.QT.software%20process%20improvement.QT.)%20AND%20(.QT.business%20goal.QT.)%20AND%20(.QT.alignment.QT.%20OR%20.QT.in%20line%20with."/>
-    <hyperlink ref="H6" display="https://dl.acm.org/results.cfm?query=%252B(%22software%20process%20improvement%22%20%252B(%22business%20goal%22%20%22strategic%22%20%22goal%20oriented%22%20%22business%20oriented%22%20%22business%20strategy%22)%20%252B(%22alignment%22%20%22in%20line%20wit"/>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H8" display="https://link.springer.com/search?query=%22software+process+improvement%22+and+%28%22business+goal%22+or+%22strategic%22+or+%22goal+oriented%22+or+%22business+oriented%22+or+%22business+strategy%22%29+and+%28%22alignment%22+or++%22in+line+with%22+or+%22gea"/>
-    <hyperlink ref="H9" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="G7" display="http://ieeexplore.ieee.org/search/searchresult.jsp?action=search&amp;matchBoolean=true&amp;searchField=Search_All_Text&amp;queryText=(((.QT.software%20process%20improvement.QT.)%20AND%20(.QT.business%20goal.QT.)%20AND%20(.QT.alignment.QT.%20OR%20.QT.in%20line%20with."/>
+    <hyperlink ref="G6" display="https://dl.acm.org/results.cfm?query=%252B(%22software%20process%20improvement%22%20%252B(%22business%20goal%22%20%22strategic%22%20%22goal%20oriented%22%20%22business%20oriented%22%20%22business%20strategy%22)%20%252B(%22alignment%22%20%22in%20line%20wit"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G8" display="https://link.springer.com/search?query=%22software+process+improvement%22+and+%28%22business+goal%22+or+%22strategic%22+or+%22goal+oriented%22+or+%22business+oriented%22+or+%22business+strategy%22%29+and+%28%22alignment%22+or++%22in+line+with%22+or+%22gea"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2862,406 +2932,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="A1" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="105" t="s">
-        <v>248</v>
+        <v>147</v>
+      </c>
+      <c r="G2" s="104" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="7">
         <v>25</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10">
         <v>2007</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="94">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10">
         <v>2008</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7">
         <v>24</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="94">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="10">
         <v>2015</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7">
         <v>57</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="94"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="10">
         <v>2011</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5">
         <v>11</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="10">
         <v>2010</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="5">
         <v>22</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10">
         <v>2009</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="5">
         <v>13</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10">
         <v>2010</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="5">
         <v>43</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="72">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D11" s="10">
         <v>2010</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="5">
         <v>11</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10">
         <v>1999</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="6">
         <v>37</v>
       </c>
-      <c r="G12" s="70"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="D13" s="10">
         <v>2005</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="5">
         <v>16</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D14" s="10">
         <v>2008</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="5">
         <v>14</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="D15" s="10">
         <v>2011</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="5">
         <v>8</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="10">
         <v>2009</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="5">
         <v>27</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="72">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="10">
         <v>1997</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="5">
         <v>14</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>79</v>
       </c>
       <c r="D18" s="10">
         <v>2010</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="5">
         <v>8</v>
       </c>
-      <c r="G18" s="70"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D19" s="10">
         <v>2005</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="5">
         <v>15</v>
@@ -3270,19 +3340,19 @@
     </row>
     <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="D20" s="10">
         <v>2011</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="5">
         <v>18</v>
@@ -3291,40 +3361,40 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="D21" s="10">
         <v>2008</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="5">
         <v>22</v>
       </c>
-      <c r="G21" s="70"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="D22" s="10">
         <v>2015</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="5">
         <v>15</v>
@@ -3333,65 +3403,65 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="D23" s="10">
         <v>2000</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="5">
         <v>11</v>
       </c>
-      <c r="G23" s="70"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="D24" s="10">
         <v>2010</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="5">
         <v>33</v>
       </c>
-      <c r="G24" s="70"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9">
         <f>SUM(F3:F24)</f>
         <v>464</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="69">
         <f>SUM(G3:G24)</f>
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3407,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,89 +3492,89 @@
     <col min="5" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
+    <row r="1" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="A2" s="131" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
+      <c r="A3" s="130" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-    </row>
-    <row r="5" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>273</v>
+      <c r="A4" s="136" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+    </row>
+    <row r="5" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="124" t="s">
-        <v>274</v>
+      <c r="B6" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>272</v>
       </c>
       <c r="N6" s="38"/>
     </row>
@@ -3512,359 +3582,383 @@
       <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="125"/>
+      <c r="B7" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="133"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="125"/>
+      <c r="B8" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="133"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="125"/>
+      <c r="B9" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="133"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="125"/>
+      <c r="B10" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="133"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="125"/>
+      <c r="B11" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="133"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="126"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="B12" s="73" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="134"/>
+    </row>
+    <row r="13" spans="1:19" s="151" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="109"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="131" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+    </row>
+    <row r="15" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="107">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F18" s="106">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="149">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F19" s="106">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="107">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F20" s="106">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="107">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F21" s="106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="107">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F22" s="106">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-    </row>
-    <row r="14" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="98" t="s">
+      <c r="C23" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="107">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F23" s="106">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="144" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="70" t="s">
+      <c r="B27" s="107">
+        <v>0.47</v>
+      </c>
+      <c r="C27" s="106">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="107">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C28" s="106">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="143">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F17" s="142">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="144" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="74" t="s">
+      <c r="B29" s="149">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C29" s="106">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="107">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C30" s="106">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="74" t="s">
+      <c r="B31" s="107">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C31" s="106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="143">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F19" s="142">
+      <c r="B32" s="107">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C32" s="106">
         <v>0.59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="74" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="143">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F20" s="142">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="143">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F21" s="142">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="143">
+      <c r="B33" s="107">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F22" s="142">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
-        <v>283</v>
-      </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-    </row>
-    <row r="24" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="142">
-        <v>0.47</v>
-      </c>
-      <c r="C26" s="142">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="143">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C27" s="142">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="143">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C29" s="142">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" s="143">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C30" s="142">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="143">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C31" s="142">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="B32" s="143">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C32" s="142">
+      <c r="C33" s="106">
         <v>0.54</v>
       </c>
     </row>
@@ -3874,12 +3968,12 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
     <mergeCell ref="D6:D12"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3908,737 +4002,737 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="A1" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="2" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
+      <c r="A2" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="E4" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73">
+        <v>20</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73">
+        <v>24</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="92" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="74"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="101" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74">
-        <v>20</v>
-      </c>
-      <c r="G6" s="102" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73">
+        <v>11</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:14" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="98">
+        <v>44</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73">
         <v>14</v>
       </c>
-      <c r="H6" s="103" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="101" t="s">
+      <c r="G16" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="102" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74">
-        <v>24</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="92" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73">
+        <v>8</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="102" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="74"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="101" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73">
+        <v>27</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74">
-        <v>11</v>
-      </c>
-      <c r="G9" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="103" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="92" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73">
+        <v>14</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="102" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="74"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="92" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="74"/>
-    </row>
-    <row r="12" spans="1:14" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="101" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="99">
-        <v>44</v>
-      </c>
-      <c r="G12" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="103" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="92" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="73"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="74"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="92" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="73"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="74"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="92" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="73"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="101" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="73"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74">
-        <v>14</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="103" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74">
-        <v>8</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="103" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74">
-        <v>27</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="103" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74">
-        <v>14</v>
-      </c>
-      <c r="G19" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="103" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="1:11" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="74"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="100">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="99">
         <f>SUM(F5:F26)</f>
         <v>162</v>
       </c>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="75"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+    </row>
+    <row r="28" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="67"/>
+      <c r="I29" s="145" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="147"/>
+      <c r="C30" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="I30" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="73">
+        <v>17</v>
+      </c>
+      <c r="K30" s="85"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="147"/>
+      <c r="C31" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="I31" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="73">
+        <v>22</v>
+      </c>
+      <c r="K31" s="72"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="68"/>
-      <c r="I29" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="I30" s="77" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="I32" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="72">
+        <v>8</v>
+      </c>
+      <c r="K32" s="72"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="139" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="139"/>
+      <c r="C33" s="140" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="96"/>
+      <c r="I33" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="74">
-        <v>17</v>
-      </c>
-      <c r="K30" s="86"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="139"/>
-      <c r="C31" s="82" t="s">
+      <c r="J33" s="72">
+        <v>14</v>
+      </c>
+      <c r="K33" s="72"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="139"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="96"/>
+      <c r="I34" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="73"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="73"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="84"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="K40" s="81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="J42" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="I31" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="74">
-        <v>22</v>
-      </c>
-      <c r="K31" s="73"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="139" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="82" t="s">
+      <c r="K42" s="73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="I44" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" s="95" t="s">
         <v>240</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="I32" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="J32" s="73">
-        <v>8</v>
-      </c>
-      <c r="K32" s="73"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="97"/>
-      <c r="I33" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="J33" s="73">
-        <v>14</v>
-      </c>
-      <c r="K33" s="73"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="97"/>
-      <c r="I34" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="K34" s="74"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="74"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="85"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="79" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="K38" s="81" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="K39" s="82" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="J40" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="K40" s="82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="J41" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="K41" s="82" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="I42" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="J42" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="K42" s="74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="I44" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="J44" s="96" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="62" t="s">
+      <c r="I47" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I48" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="54" t="s">
+      <c r="J48" s="54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="63" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I48" s="63" t="s">
+      <c r="J49" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="J48" s="55">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I49" s="64" t="s">
+      <c r="J50" s="54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="J49" s="56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="63" t="s">
+      <c r="J51" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="J50" s="55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="64" t="s">
+      <c r="J52" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="J51" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="63" t="s">
+      <c r="J53" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="J52" s="57">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="64" t="s">
+      <c r="J54" s="58"/>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="J53" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="63" t="s">
+      <c r="J55" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="J54" s="59"/>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I55" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="J55" s="60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="J56" s="61">
+      <c r="J56" s="60">
         <v>12</v>
       </c>
     </row>
@@ -4662,7 +4756,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="72">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="152" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="152"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -4674,13 +4822,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>245</v>
+      <c r="A1" s="50" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>246</v>
+      <c r="A4" s="93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment01_Resumo/Resumo_P01_.xlsx
+++ b/Experiment01_Resumo/Resumo_P01_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="308">
   <si>
     <t>Database search</t>
   </si>
@@ -1012,6 +1012,27 @@
   </si>
   <si>
     <t>3 são proceeding de conferencia.Nas evidências de Vasc. temos 18</t>
+  </si>
+  <si>
+    <t>Encontrados via busca</t>
+  </si>
+  <si>
+    <t>Encontrados via snowballing</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>FSB</t>
+  </si>
+  <si>
+    <t>BSB/FSB</t>
+  </si>
+  <si>
+    <t>Removido</t>
+  </si>
+  <si>
+    <t>Falso-positivo or not focus on SPI</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1242,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1590,7 +1623,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1610,9 +1643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,18 +1683,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1853,9 +1873,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1877,125 +1894,158 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2281,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2310,34 +2360,34 @@
       <c r="B3" s="117"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2347,57 +2397,57 @@
       </c>
       <c r="B8" s="119"/>
     </row>
-    <row r="9" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2415,7 +2465,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,32 +2481,32 @@
       <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2473,52 +2523,52 @@
       <c r="B7" s="123"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2540,15 +2590,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="54.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="53.5703125" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="29" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2562,339 +2612,339 @@
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="72">
         <v>15</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="39">
         <v>20</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="39">
         <v>17</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="39">
         <v>10</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="39">
         <v>10</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>10</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="39">
         <v>13</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="39">
         <v>20</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="39">
         <v>16</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="44">
         <v>100</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="44">
         <v>103</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="39">
         <v>43</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="39">
         <v>26</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39">
         <v>26</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="44">
         <v>141</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="44">
         <v>128</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="39">
         <v>195</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="39">
         <v>189</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="39">
         <v>182</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="155">
+      <c r="A10" s="18"/>
+      <c r="B10" s="113">
         <f>SUM(B3:B9)</f>
         <v>517</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="155">
+      <c r="C10" s="113"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="113">
         <f>SUM(E3:E9)</f>
         <v>482</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2914,562 +2964,735 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="152" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="156" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="156" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="156" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="156" t="s">
+        <v>305</v>
+      </c>
+      <c r="K2" s="156" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="160" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="7">
         <v>25</v>
       </c>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="151" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>2007</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>129</v>
       </c>
       <c r="F4" s="7">
         <v>20</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="89">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="64">
+        <v>1</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2008</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="7">
         <v>24</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="89">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="64">
+        <v>1</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>2015</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="7">
         <v>57</v>
       </c>
-      <c r="G6" s="94"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="89"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64">
+        <v>1</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="149" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2011</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>128</v>
       </c>
       <c r="F7" s="5">
         <v>11</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="67">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="64">
+        <v>1</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>2010</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="5">
         <v>22</v>
       </c>
-      <c r="G8" s="72"/>
-    </row>
-    <row r="9" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="67"/>
+      <c r="H8" s="64">
+        <v>1</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>2009</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>133</v>
       </c>
       <c r="F9" s="5">
         <v>13</v>
       </c>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64">
+        <v>1</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>2010</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>134</v>
       </c>
       <c r="F10" s="5">
         <v>43</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="67">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="64">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="149" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2010</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="5">
         <v>11</v>
       </c>
-      <c r="G11" s="69"/>
-    </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64">
+        <v>1</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="149" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1999</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="6">
         <v>37</v>
       </c>
-      <c r="G12" s="69"/>
-    </row>
-    <row r="13" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="64"/>
+      <c r="H12" s="64">
+        <v>1</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>2005</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="5">
         <v>16</v>
       </c>
-      <c r="G13" s="69"/>
-    </row>
-    <row r="14" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="149" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>2008</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="5">
         <v>14</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="67">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="64">
+        <v>1</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>2011</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="5">
         <v>8</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="67">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="64">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>2009</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>139</v>
       </c>
       <c r="F16" s="5">
         <v>27</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="67">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="64">
+        <v>1</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="67"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="149" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1997</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="5">
         <v>14</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="67">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="64">
+        <v>1</v>
+      </c>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="67"/>
+    </row>
+    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>2010</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>141</v>
       </c>
       <c r="F18" s="5">
         <v>8</v>
       </c>
-      <c r="G18" s="69"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64">
+        <v>1</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="150" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>2005</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>142</v>
       </c>
       <c r="F19" s="5">
         <v>15</v>
       </c>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="H19" s="64">
+        <v>1</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="67"/>
+    </row>
+    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>2011</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>143</v>
       </c>
       <c r="F20" s="5">
         <v>18</v>
       </c>
       <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="67"/>
+    </row>
+    <row r="21" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>2008</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>144</v>
       </c>
       <c r="F21" s="5">
         <v>22</v>
       </c>
-      <c r="G21" s="69"/>
-    </row>
-    <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64">
+        <v>1</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="K21" s="67"/>
+    </row>
+    <row r="22" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>2015</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="5">
         <v>15</v>
       </c>
       <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>2000</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="5">
         <v>11</v>
       </c>
-      <c r="G23" s="69"/>
-    </row>
-    <row r="24" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="67"/>
+    </row>
+    <row r="24" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>2010</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>146</v>
       </c>
       <c r="F24" s="5">
         <v>33</v>
       </c>
-      <c r="G24" s="69"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64">
+        <v>1</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f>SUM(F3:F24)</f>
         <v>464</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="64">
         <f>SUM(G3:G24)</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="H25" s="64">
+        <f>SUM(H3:H24)</f>
+        <v>13</v>
+      </c>
+      <c r="I25" s="64">
+        <f>SUM(I3:I24)</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="67"/>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3479,7 +3702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
@@ -3492,488 +3715,488 @@
     <col min="5" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-    </row>
-    <row r="5" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+    </row>
+    <row r="5" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="92" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="135"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="135"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="135"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="135"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="134"/>
-    </row>
-    <row r="13" spans="1:19" s="151" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="D12" s="136"/>
+    </row>
+    <row r="13" spans="1:19" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="103"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
     </row>
     <row r="15" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="92" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="101">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F18" s="106">
+      <c r="F18" s="100">
         <v>0.72</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="149">
+      <c r="E19" s="108">
         <v>2.3E-2</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="100">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="101">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="100">
         <v>0.59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="101">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="100">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="101">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="100">
         <v>0.59</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="101">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="100">
         <v>0.54</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="107">
+      <c r="B27" s="101">
         <v>0.47</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="100">
         <v>0.36</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="107">
+      <c r="B28" s="101">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="100">
         <v>0.72</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="149">
+      <c r="B29" s="108">
         <v>2.3E-2</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="100">
         <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="107">
+      <c r="B30" s="101">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="100">
         <v>0.59</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="107">
+      <c r="B31" s="101">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C31" s="106">
+      <c r="C31" s="100">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="107">
+      <c r="B32" s="101">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="100">
         <v>0.59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="107">
+      <c r="B33" s="101">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C33" s="100">
         <v>0.54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4002,737 +4225,737 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="66" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="77" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="100" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68">
         <v>20</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="97" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:14" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="100" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <v>24</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H7" s="98" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="77" t="s">
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="73"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="100" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73">
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68">
         <v>11</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="77" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="77" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="1:14" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="H11" s="68"/>
+    </row>
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="100" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="98">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="93">
         <v>44</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="97" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="77" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="73"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="77" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="77" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="73"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="100" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73">
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68">
         <v>14</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="97" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:11" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="100" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73">
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68">
         <v>8</v>
       </c>
-      <c r="G17" s="101" t="s">
+      <c r="G17" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="97" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="100" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73">
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68">
         <v>27</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="97" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:11" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="100" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68">
         <v>14</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="97" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="77" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="73"/>
-    </row>
-    <row r="21" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:11" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="91" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="77" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="68"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="91" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="77" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="91" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="77" t="s">
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="77" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="73"/>
+      <c r="H24" s="68"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="91" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="77" t="s">
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="91" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="77" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="99">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="94">
         <f>SUM(F5:F26)</f>
         <v>162</v>
       </c>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-    </row>
-    <row r="28" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="74"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="67"/>
-      <c r="I29" s="145" t="s">
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="62"/>
+      <c r="I29" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="73" t="s">
+      <c r="B30" s="146"/>
+      <c r="C30" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="I30" s="76" t="s">
+      <c r="D30" s="65"/>
+      <c r="I30" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="73">
+      <c r="J30" s="68">
         <v>17</v>
       </c>
-      <c r="K30" s="85"/>
+      <c r="K30" s="80"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="81" t="s">
+      <c r="B31" s="146"/>
+      <c r="C31" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="I31" s="76" t="s">
+      <c r="D31" s="65"/>
+      <c r="I31" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="J31" s="73">
+      <c r="J31" s="68">
         <v>22</v>
       </c>
-      <c r="K31" s="72"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="81" t="s">
+      <c r="B32" s="146"/>
+      <c r="C32" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="I32" s="83" t="s">
+      <c r="D32" s="65"/>
+      <c r="I32" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="67">
         <v>8</v>
       </c>
-      <c r="K32" s="72"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140" t="s">
+      <c r="B33" s="138"/>
+      <c r="C33" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="I33" s="83" t="s">
+      <c r="D33" s="91"/>
+      <c r="I33" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="67">
         <v>14</v>
       </c>
-      <c r="K33" s="72"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="96"/>
-      <c r="I34" s="82" t="s">
+      <c r="A34" s="138"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="91"/>
+      <c r="I34" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="73"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="J35" s="86" t="s">
+      <c r="J35" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="K35" s="73"/>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="84"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="79" t="s">
+      <c r="I37" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="J37" s="78" t="s">
+      <c r="J37" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="K37" s="78" t="s">
+      <c r="K37" s="73" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="91" t="s">
+      <c r="I38" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="J38" s="77" t="s">
+      <c r="J38" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="K38" s="80" t="s">
+      <c r="K38" s="75" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="90" t="s">
+      <c r="I39" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="J39" s="86" t="s">
+      <c r="J39" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="K39" s="81" t="s">
+      <c r="K39" s="76" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="90" t="s">
+      <c r="I40" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="J40" s="86" t="s">
+      <c r="J40" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="76" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I41" s="89" t="s">
+      <c r="I41" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="J41" s="87" t="s">
+      <c r="J41" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="I42" s="92" t="s">
+      <c r="I42" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="J42" s="88" t="s">
+      <c r="J42" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="K42" s="73" t="s">
+      <c r="K42" s="68" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="I44" s="93" t="s">
+      <c r="I44" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="J44" s="95" t="s">
+      <c r="J44" s="90" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="61" t="s">
+      <c r="I47" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="J47" s="53" t="s">
+      <c r="J47" s="48" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="J48" s="54">
+      <c r="J48" s="49">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I49" s="63" t="s">
+      <c r="I49" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="62" t="s">
+      <c r="I50" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="J50" s="54">
+      <c r="J50" s="49">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="63" t="s">
+      <c r="I51" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="J51" s="55" t="s">
+      <c r="J51" s="50" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="52" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="62" t="s">
+      <c r="I52" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="J52" s="56">
+      <c r="J52" s="51">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="63" t="s">
+      <c r="I53" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J53" s="57">
+      <c r="J53" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="62" t="s">
+      <c r="I54" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="J54" s="58"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I55" s="64" t="s">
+      <c r="I55" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="J55" s="59">
+      <c r="J55" s="54">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I56" s="65" t="s">
+      <c r="I56" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="J56" s="60">
+      <c r="J56" s="55">
         <v>12</v>
       </c>
     </row>
@@ -4767,34 +4990,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="106" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="107" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="67">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="152"/>
+      <c r="B4" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4822,22 +5045,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="45" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="88" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="105" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="105" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Experiment01_Resumo/Resumo_P01_.xlsx
+++ b/Experiment01_Resumo/Resumo_P01_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="322">
   <si>
     <t>Database search</t>
   </si>
@@ -1033,6 +1033,48 @@
   </si>
   <si>
     <t>Falso-positivo or not focus on SPI</t>
+  </si>
+  <si>
+    <t>Publicada mas não encontrada via busca</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/document/963369/</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/document/1541827/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?doid=1987875.1987902</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?doid=2785592.2785608</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?doid=337180.337492</t>
+  </si>
+  <si>
+    <t>Busca em todas as Bibliotecas Digitais utilizadas na SLR Publicada</t>
+  </si>
+  <si>
+    <t>Busca em todas as Bibliotecas Digitais utilizadas na SLR Publicada mais Snowballing do Guideline</t>
+  </si>
+  <si>
+    <t>Busca informal no Google Scholar mais Snowballing do Guideline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca na Scopus mais Snowballing do Short Paper </t>
+  </si>
+  <si>
+    <t>Busca na Scopus mais Snowballing do Guideline</t>
+  </si>
+  <si>
+    <t>Busca na Scopus mais Snowballing identificado pelo JF sequencia BSB-FSB.</t>
+  </si>
+  <si>
+    <t>Busca na Scopus mais Snowballing identificado pelo JF sequencia FSB-BSB.</t>
+  </si>
+  <si>
+    <t>Descrição da Estratégia</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1665,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1882,7 +1924,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,7 +1938,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1906,111 +1946,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2034,9 +1969,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2046,6 +1978,133 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2342,22 +2401,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="128"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="128"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -2392,10 +2451,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="119"/>
+      <c r="B8" s="130"/>
     </row>
     <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2475,10 +2534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="136"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2511,16 +2570,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="132"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="123"/>
+      <c r="B7" s="134"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -2602,16 +2661,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="139"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
@@ -2732,7 +2791,7 @@
       <c r="B6" s="44">
         <v>100</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="103" t="s">
         <v>287</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -2786,7 +2845,7 @@
       <c r="B8" s="44">
         <v>141</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="103" t="s">
         <v>286</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -2837,13 +2896,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="113">
+      <c r="B10" s="111">
         <f>SUM(B3:B9)</f>
         <v>517</v>
       </c>
-      <c r="C10" s="113"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="69"/>
-      <c r="E10" s="113">
+      <c r="E10" s="111">
         <f>SUM(E3:E9)</f>
         <v>482</v>
       </c>
@@ -2964,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,25 +3040,28 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="152" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="115" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>124</v>
       </c>
@@ -3018,27 +3080,30 @@
       <c r="F2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="119" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="156" t="s">
+      <c r="I2" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="J2" s="156" t="s">
+      <c r="J2" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="K2" s="156" t="s">
+      <c r="K2" s="119" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="L2" s="119" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="122" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3058,12 +3123,18 @@
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
       <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="162" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3086,15 +3157,16 @@
       </c>
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -3118,12 +3190,13 @@
       <c r="I5" s="64"/>
       <c r="J5" s="64"/>
       <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="68"/>
+    </row>
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -3146,15 +3219,16 @@
       <c r="J6" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="K6" s="157" t="s">
+      <c r="K6" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="112" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3178,12 +3252,13 @@
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="68"/>
+    </row>
+    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="112" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -3205,12 +3280,13 @@
       <c r="I8" s="64"/>
       <c r="J8" s="64"/>
       <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="68"/>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="117" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -3234,12 +3310,13 @@
         <v>303</v>
       </c>
       <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="113" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -3263,12 +3340,13 @@
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
       <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="68"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="112" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3290,12 +3368,13 @@
       <c r="I11" s="64"/>
       <c r="J11" s="64"/>
       <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="68"/>
+    </row>
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="112" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3317,12 +3396,13 @@
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
       <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="L12" s="68"/>
+    </row>
+    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="123" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -3341,15 +3421,21 @@
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
-      <c r="K13" s="157" t="s">
+      <c r="K13" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="162" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="112" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3372,15 +3458,16 @@
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
-      <c r="K14" s="157" t="s">
+      <c r="K14" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="68"/>
+    </row>
+    <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="112" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3404,12 +3491,13 @@
       <c r="I15" s="64"/>
       <c r="J15" s="64"/>
       <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="68"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="112" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -3433,12 +3521,13 @@
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
       <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="68"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="112" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3462,12 +3551,13 @@
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
       <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -3490,15 +3580,16 @@
       <c r="J18" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="K18" s="157" t="s">
+      <c r="K18" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="113" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3520,12 +3611,13 @@
       <c r="I19" s="64"/>
       <c r="J19" s="64"/>
       <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162" t="s">
+      <c r="L19" s="68"/>
+    </row>
+    <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="121" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -3545,12 +3637,18 @@
       <c r="I20" s="64"/>
       <c r="J20" s="64"/>
       <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="162" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="116" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -3574,12 +3672,13 @@
         <v>303</v>
       </c>
       <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="121" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -3598,15 +3697,21 @@
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
-      <c r="K22" s="157" t="s">
+      <c r="K22" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="L22" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="162" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="121" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -3626,12 +3731,18 @@
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="162" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="113" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -3652,11 +3763,12 @@
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="64"/>
-      <c r="K24" s="157" t="s">
+      <c r="K24" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="68"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
         <v>81</v>
       </c>
@@ -3678,8 +3790,9 @@
       </c>
       <c r="J25" s="64"/>
       <c r="K25" s="67"/>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L25" s="68"/>
+    </row>
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>126</v>
       </c>
@@ -3687,13 +3800,20 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M13" r:id="rId2"/>
+    <hyperlink ref="M20" r:id="rId3"/>
+    <hyperlink ref="M22" r:id="rId4"/>
+    <hyperlink ref="M23" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3702,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,46 +3833,47 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="J3" s="99"/>
       <c r="K3" s="99"/>
       <c r="L3" s="99"/>
@@ -3765,12 +3886,12 @@
       <c r="S3" s="99"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
     </row>
     <row r="5" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
@@ -3787,7 +3908,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="109" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="68" t="s">
@@ -3796,13 +3917,13 @@
       <c r="C6" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="143" t="s">
         <v>272</v>
       </c>
       <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="109" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="68" t="s">
@@ -3811,10 +3932,10 @@
       <c r="C7" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="144"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="68" t="s">
@@ -3823,10 +3944,10 @@
       <c r="C8" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="144"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="68" t="s">
@@ -3835,10 +3956,10 @@
       <c r="C9" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="144"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="109" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="68" t="s">
@@ -3847,10 +3968,10 @@
       <c r="C10" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="144"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="109" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="68" t="s">
@@ -3859,10 +3980,10 @@
       <c r="C11" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="144"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="68" t="s">
@@ -3871,9 +3992,9 @@
       <c r="C12" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="136"/>
-    </row>
-    <row r="13" spans="1:19" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="145"/>
+    </row>
+    <row r="13" spans="1:19" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
         <v>298</v>
       </c>
@@ -3883,33 +4004,33 @@
       <c r="C13" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="103"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="142" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
     </row>
     <row r="15" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
       <c r="J15" s="99"/>
       <c r="K15" s="99"/>
       <c r="L15" s="99"/>
@@ -3922,14 +4043,14 @@
       <c r="S15" s="99"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="146" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
@@ -3952,10 +4073,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="71" t="s">
         <v>262</v>
       </c>
       <c r="C18" s="68" t="s">
@@ -3972,10 +4093,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="163" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="71" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="68" t="s">
@@ -3984,7 +4105,7 @@
       <c r="D19" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="107">
         <v>2.3E-2</v>
       </c>
       <c r="F19" s="100">
@@ -3992,10 +4113,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="71" t="s">
         <v>262</v>
       </c>
       <c r="C20" s="68" t="s">
@@ -4012,10 +4133,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="71" t="s">
         <v>263</v>
       </c>
       <c r="C21" s="68" t="s">
@@ -4032,10 +4153,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="71" t="s">
         <v>283</v>
       </c>
       <c r="C22" s="68" t="s">
@@ -4052,10 +4173,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="71" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="68" t="s">
@@ -4072,30 +4193,30 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
@@ -4107,6 +4228,12 @@
       <c r="C26" s="92" t="s">
         <v>209</v>
       </c>
+      <c r="D26" s="164" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
@@ -4118,6 +4245,12 @@
       <c r="C27" s="100">
         <v>0.36</v>
       </c>
+      <c r="D27" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
@@ -4129,17 +4262,29 @@
       <c r="C28" s="100">
         <v>0.72</v>
       </c>
+      <c r="D28" s="165" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="108">
+      <c r="B29" s="107">
         <v>2.3E-2</v>
       </c>
       <c r="C29" s="100">
         <v>0.4</v>
       </c>
+      <c r="D29" s="165" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="71" t="s">
@@ -4151,6 +4296,12 @@
       <c r="C30" s="100">
         <v>0.59</v>
       </c>
+      <c r="D30" s="165" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
@@ -4162,6 +4313,12 @@
       <c r="C31" s="100">
         <v>0.5</v>
       </c>
+      <c r="D31" s="165" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
@@ -4173,8 +4330,14 @@
       <c r="C32" s="100">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="165" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
         <v>268</v>
       </c>
@@ -4184,19 +4347,32 @@
       <c r="C33" s="100">
         <v>0.54</v>
       </c>
+      <c r="D33" s="165" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4225,16 +4401,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
@@ -4243,16 +4419,16 @@
       <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4261,16 +4437,16 @@
       <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -4699,23 +4875,23 @@
       <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="157" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="62"/>
-      <c r="I29" s="144" t="s">
+      <c r="I29" s="156" t="s">
         <v>203</v>
       </c>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="146"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="68" t="s">
         <v>202</v>
       </c>
@@ -4729,10 +4905,10 @@
       <c r="K30" s="80"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="146"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="76" t="s">
         <v>237</v>
       </c>
@@ -4746,10 +4922,10 @@
       <c r="K31" s="67"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="146"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="76" t="s">
         <v>238</v>
       </c>
@@ -4763,11 +4939,11 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="139" t="s">
+      <c r="B33" s="150"/>
+      <c r="C33" s="151" t="s">
         <v>229</v>
       </c>
       <c r="D33" s="91"/>
@@ -4780,9 +4956,9 @@
       <c r="K33" s="67"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="138"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
       <c r="D34" s="91"/>
       <c r="I34" s="77" t="s">
         <v>183</v>
@@ -4990,10 +5166,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="105" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5001,12 +5177,12 @@
       <c r="A2" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="109" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="67">
@@ -5014,10 +5190,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5055,12 +5231,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="104" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="104" t="s">
         <v>290</v>
       </c>
     </row>

--- a/Experiment01_Resumo/Resumo_P01_.xlsx
+++ b/Experiment01_Resumo/Resumo_P01_.xlsx
@@ -19,8 +19,8 @@
     <sheet name="ResearchQuestions" sheetId="11" r:id="rId5"/>
     <sheet name="Scopus" sheetId="10" r:id="rId6"/>
     <sheet name="Não encontrados na Busca" sheetId="15" r:id="rId7"/>
-    <sheet name="BuscaPorTítulo" sheetId="14" r:id="rId8"/>
-    <sheet name="GoogleScholar" sheetId="13" r:id="rId9"/>
+    <sheet name="BuscaGoogleScholar" sheetId="13" r:id="rId8"/>
+    <sheet name="BuscaPorTítulo" sheetId="14" r:id="rId9"/>
     <sheet name="Threats" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="359">
   <si>
     <t>Database search</t>
   </si>
@@ -457,9 +457,6 @@
     <t>DL</t>
   </si>
   <si>
-    <t>Retorno da Busca na Biblioteca Digital</t>
-  </si>
-  <si>
     <t xml:space="preserve">Study </t>
   </si>
   <si>
@@ -597,9 +594,6 @@
     <t>6 foram removidos devido a titulo de keyword index, e 1 estava duplicado.</t>
   </si>
   <si>
-    <t>Retorno na DL</t>
-  </si>
-  <si>
     <t>Obs.</t>
   </si>
   <si>
@@ -654,7 +648,538 @@
     <t>Forward Snowballing</t>
   </si>
   <si>
-    <t>Resumo Scopus</t>
+    <t>Resumo Cobertura</t>
+  </si>
+  <si>
+    <t>Scopus + BS</t>
+  </si>
+  <si>
+    <t>Scopus + FS</t>
+  </si>
+  <si>
+    <t>Scopus + BS + FS (Hybrid Strategy)</t>
+  </si>
+  <si>
+    <t>Resumo Backward</t>
+  </si>
+  <si>
+    <t>Qtd</t>
+  </si>
+  <si>
+    <t>Artigos do Estudo Selecionado</t>
+  </si>
+  <si>
+    <t>Encontrado na Scopus</t>
+  </si>
+  <si>
+    <t>Não encontrados na Scopus</t>
+  </si>
+  <si>
+    <t>Encontrados no Backward Snowballing - Iteração 1</t>
+  </si>
+  <si>
+    <t>Não encontrados na Iteração 1</t>
+  </si>
+  <si>
+    <t>Encontrados no Backward Snowballing - Iteração 2</t>
+  </si>
+  <si>
+    <t>Não encontrados na Iteração 2</t>
+  </si>
+  <si>
+    <t>Encontrados na Scopus + Backward Snowballing</t>
+  </si>
+  <si>
+    <t>Não encontrados</t>
+  </si>
+  <si>
+    <t>8/22 = 36%</t>
+  </si>
+  <si>
+    <t>Precision and Recall</t>
+  </si>
+  <si>
+    <t>Database Search (Scopus)</t>
+  </si>
+  <si>
+    <t>Number of papers selected</t>
+  </si>
+  <si>
+    <t>Precision (%)</t>
+  </si>
+  <si>
+    <t>Recall (%)</t>
+  </si>
+  <si>
+    <t>Backward Snowballing (Iteration 1)</t>
+  </si>
+  <si>
+    <t>Backward Snowballing (Iteration 2)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Forward Snowballing (Iteration 1)</t>
+  </si>
+  <si>
+    <t>Scopus + Backward + Forward</t>
+  </si>
+  <si>
+    <t>8/17 = 47%</t>
+  </si>
+  <si>
+    <t>Referências</t>
+  </si>
+  <si>
+    <t>wilkie2007a</t>
+  </si>
+  <si>
+    <t>becker2008a</t>
+  </si>
+  <si>
+    <t>kaneko2011a</t>
+  </si>
+  <si>
+    <t>guzmán2010a</t>
+  </si>
+  <si>
+    <t>martins2008a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plösch2011a </t>
+  </si>
+  <si>
+    <t>albuquerque2009a</t>
+  </si>
+  <si>
+    <t>reiblein1997a</t>
+  </si>
+  <si>
+    <t>2/156</t>
+  </si>
+  <si>
+    <t>0/21=</t>
+  </si>
+  <si>
+    <t>11/22 = 50%</t>
+  </si>
+  <si>
+    <t>2/22 = 9,09%</t>
+  </si>
+  <si>
+    <t>1/22 = 4,54%</t>
+  </si>
+  <si>
+    <t>10/22 = 45,45%</t>
+  </si>
+  <si>
+    <t>9/22 = 40,90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Name </t>
+  </si>
+  <si>
+    <t>Biblioteca Digital</t>
+  </si>
+  <si>
+    <t>Ameaça à validade: 1) a busca que realizo limitada a 2015, no forward temos somente busca por filtro de até o ano de 2015. No primeiro backward, pode ser que seja eliminada alguma referencia retornada na busca e não lida. 2) As estrategias estão em loop com o repeat. 3) 
+RQ 4) A string de busca limita a uma quantidade onde o recall e precision são bons ou deveriam ser. Se eu encontrasse todos os artigos, recall alto e precision seria baixo devido ao alto esforço para ler mais de mil artigos do retorno da busca; Colocar a tag da scopus com outro nome para que fique identico ao do Francisco; As citações do ano maior que 2015 e os arquivos foram mantidos mas com o filtro não são retornados. Gerar um resumo das estratégias; O retorno no scholar de artigos em russo, jap e outros diferentes do ingles deve ser incluido ou nao (perguntar ao Leo), mas nao devera influenciar no resultado.;</t>
+  </si>
+  <si>
+    <t>1) um artigo de 2017 cita no forward um de 2015. Deve ser selecionado?
+2) Artigos selecionados no forward deveriam ser somente em ingles; Existem em russo, espanhol, japones.
+3) Tese deveria ser selecionada? Qual critério? 4)No forward de  albuquerque2009a tivemos 5 artigos( 4 existentes e 1 incluído), como eu visualizo essa informação?</t>
+  </si>
+  <si>
+    <t>Qtd Ref encontrado no Scopus</t>
+  </si>
+  <si>
+    <t>0/128= 0</t>
+  </si>
+  <si>
+    <t>0/22=0</t>
+  </si>
+  <si>
+    <t>Research Question 1) Qual das bibliotecas digitais utilizadas na SLR publicada é mais eficiente?</t>
+  </si>
+  <si>
+    <t>Research Questions</t>
+  </si>
+  <si>
+    <t>7/16= 43%</t>
+  </si>
+  <si>
+    <t>5/10= 50%</t>
+  </si>
+  <si>
+    <t>1/182= 0,5%</t>
+  </si>
+  <si>
+    <t>1/103= 0,98%</t>
+  </si>
+  <si>
+    <t>7/22= 31,8%</t>
+  </si>
+  <si>
+    <t>5/22= 22,7%</t>
+  </si>
+  <si>
+    <t>1/22= 4,5%</t>
+  </si>
+  <si>
+    <t>RQ2.1)A estratégia híbrida envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
+RQ2.2)A estratégia híbrida recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
+  </si>
+  <si>
+    <t>Busca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowballing </t>
+  </si>
+  <si>
+    <t>Guideline 2014</t>
+  </si>
+  <si>
+    <t>Short Paper 2017</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>Código Snowballing</t>
+  </si>
+  <si>
+    <t>ID Estratégia</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Todas Bibliotecas Digitais</t>
+  </si>
+  <si>
+    <t>Estratégia Somente Busca</t>
+  </si>
+  <si>
+    <t>SFBU</t>
+  </si>
+  <si>
+    <t>S2FFBB2U</t>
+  </si>
+  <si>
+    <t>BBFF</t>
+  </si>
+  <si>
+    <t>FFBB</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Estratégia Híbrida (Busca + Snowballing)</t>
+  </si>
+  <si>
+    <t>Research Question 3) Qual das estratégias é mais eficiente?</t>
+  </si>
+  <si>
+    <t>Research Question 2) Qual das estratégias híbridas é mais eficiente?</t>
+  </si>
+  <si>
+    <t>JF new BF 2018</t>
+  </si>
+  <si>
+    <t>JF new FB 2018</t>
+  </si>
+  <si>
+    <t>337 mas limitado a Subdiscipline = Software Engineering and pub year 2015, temos 141</t>
+  </si>
+  <si>
+    <t>141 mas limitado a ACM temos 109.</t>
+  </si>
+  <si>
+    <t>2/22=9%</t>
+  </si>
+  <si>
+    <t>2/26= 7,6%</t>
+  </si>
+  <si>
+    <t>Alterar a estrategias guideline e short paper para primeiro executar backward.</t>
+  </si>
+  <si>
+    <t>Incluídos com o aliases - buscar com JF e remover</t>
+  </si>
+  <si>
+    <t>Limitado a 2015</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com.br/scholar?q=%28%28%22software+process+improvement%22%29+AND+%28%22business+goal%22%29+AND+%28%22alignment%22+OR+%22in+line+with%22%29+AND+%28%22method%22+OR+%22approach%22%29%29&amp;hl=pt-BR&amp;as_sdt=0%2C5&amp;as_ylo=&amp;as_yhi=2015</t>
+  </si>
+  <si>
+    <t>4/40= 10%</t>
+  </si>
+  <si>
+    <t>4/22= 18%</t>
+  </si>
+  <si>
+    <t>(Google Scholar para Guideline)</t>
+  </si>
+  <si>
+    <t>Duas páginas, cada uma com 20 resultados, organizados por relevância</t>
+  </si>
+  <si>
+    <t>3 são proceeding de conferencia.Nas evidências de Vasc. temos 18</t>
+  </si>
+  <si>
+    <t>Encontrados via busca</t>
+  </si>
+  <si>
+    <t>Encontrados via snowballing</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>FSB</t>
+  </si>
+  <si>
+    <t>BSB/FSB</t>
+  </si>
+  <si>
+    <t>Falso-positivo or not focus on SPI</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/document/963369/</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/document/1541827/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?doid=1987875.1987902</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?doid=2785592.2785608</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?doid=337180.337492</t>
+  </si>
+  <si>
+    <t>Busca em todas as Bibliotecas Digitais utilizadas na SLR Publicada</t>
+  </si>
+  <si>
+    <t>Busca em todas as Bibliotecas Digitais utilizadas na SLR Publicada mais Snowballing do Guideline</t>
+  </si>
+  <si>
+    <t>Busca informal no Google Scholar mais Snowballing do Guideline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca na Scopus mais Snowballing do Short Paper </t>
+  </si>
+  <si>
+    <t>Busca na Scopus mais Snowballing do Guideline</t>
+  </si>
+  <si>
+    <t>Busca na Scopus mais Snowballing identificado pelo JF sequencia BSB-FSB.</t>
+  </si>
+  <si>
+    <t>Busca na Scopus mais Snowballing identificado pelo JF sequencia FSB-BSB.</t>
+  </si>
+  <si>
+    <t>Descrição da Estratégia</t>
+  </si>
+  <si>
+    <t>Link dos seeds set não encontrados na busca</t>
+  </si>
+  <si>
+    <t>Resumo Forward</t>
+  </si>
+  <si>
+    <t>Encontrados no Forward Snowballing - Iteração 1</t>
+  </si>
+  <si>
+    <t>Encontrados na Scopus + Forward Snowballing</t>
+  </si>
+  <si>
+    <t>Forward Snowballing (Iteration 2)</t>
+  </si>
+  <si>
+    <t>0/2=</t>
+  </si>
+  <si>
+    <t>11/((17) + (156+21) + (50+2))= 11/246 = 4,8%</t>
+  </si>
+  <si>
+    <t>1/50= 2%</t>
+  </si>
+  <si>
+    <t>2/156= 1,3%</t>
+  </si>
+  <si>
+    <t>(2/156 + 0/21) = 2/177 = 1,13%</t>
+  </si>
+  <si>
+    <t>(1/50 + 0/2) = 1/52 = 1,92%</t>
+  </si>
+  <si>
+    <t>Seed Set (Scopus)</t>
+  </si>
+  <si>
+    <t>Not found in Database Search (Scopus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Search Strategy</t>
+  </si>
+  <si>
+    <t>petersen2015a - An elicitation instrument for operationalising GQM+ Strategies (GQM+ S-EI)</t>
+  </si>
+  <si>
+    <t>basili2010a - Linking software development and business strategy through measurement'  
+trienekens2009a - Entropy based software processes improvement'</t>
+  </si>
+  <si>
+    <t>1/50</t>
+  </si>
+  <si>
+    <t>0/2</t>
+  </si>
+  <si>
+    <t>0/21</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Recuperado via string de busca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperado via busca pelo título entre aspas duplas </t>
+  </si>
+  <si>
+    <t>Total na JF tool</t>
+  </si>
+  <si>
+    <t>156 sem duplicados</t>
+  </si>
+  <si>
+    <t>Research Question 4) Qual a quantidade de artigos selecionados que a bibliotecas digital encontra através da busca direta pelo título do artigo?</t>
+  </si>
+  <si>
+    <t>F-measure (F1 Score)</t>
+  </si>
+  <si>
+    <t>Estratégia  (E5) Scopus+Snowballing ESEM SP17</t>
+  </si>
+  <si>
+    <t>Precision, Recall and F-Measure</t>
+  </si>
+  <si>
+    <t>22/22</t>
+  </si>
+  <si>
+    <t>5/22</t>
+  </si>
+  <si>
+    <t>8/22</t>
+  </si>
+  <si>
+    <t>14/22</t>
+  </si>
+  <si>
+    <t>1/22</t>
+  </si>
+  <si>
+    <t>Removido no SB</t>
+  </si>
+  <si>
+    <t>Não encontrada via busca, mas publicada por:</t>
+  </si>
+  <si>
+    <t>Encontrados/Não encontrados</t>
+  </si>
+  <si>
+    <t>Busca por Título em Cada Biblioteca Digital em 31/03/2018</t>
+  </si>
+  <si>
+    <t>18/22</t>
+  </si>
+  <si>
+    <t>Não removido no SB mas não encontrado na Busca por Biblioteca Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Qual é o motivo da scopus nao retornar 12 dos 22 selecionados? Qual o ano de publicação, autor, local?
+6) Quais index cada biblioteca faz? Quem elas indexam? Isso talvez explique o não retorno de alguns artigos.
+</t>
+  </si>
+  <si>
+    <t>S22 (9)</t>
+  </si>
+  <si>
+    <t>S16 (9,22)</t>
+  </si>
+  <si>
+    <t>S8 (9,7)</t>
+  </si>
+  <si>
+    <t>S4 (4, 5, 9,22)</t>
+  </si>
+  <si>
+    <t>S6 (19) ok</t>
+  </si>
+  <si>
+    <t>Utilizei a mesma query do IEEE (string de busca adaptada)</t>
+  </si>
+  <si>
+    <t>Qtd retornado</t>
+  </si>
+  <si>
+    <t>Qtd páginas</t>
+  </si>
+  <si>
+    <t>Busca Informal no Google Scholar + Snowballing (Estratégia E3)</t>
+  </si>
+  <si>
+    <t>Encontrado em mais de uma biblioteca digital através da busca pelo título, mas não foi encontrado via string de busca reproduzida em 23/03/2018.</t>
+  </si>
+  <si>
+    <t>Retornado na DL</t>
+  </si>
+  <si>
+    <t>Resultado da Busca em Biblioteca Digital</t>
+  </si>
+  <si>
+    <t>RQ1.1) Qual busca em biblioteca digital encontra mais artigos incluídos na lista de selecionados da SLR publicada dentre o resultado retornado na busca (Precision)?
+RQ1.2) Qual busca em biblioteca digital recupera todos os artigos que estavam incluídos na lista de selecionados da SRL publicada (Recall)?</t>
+  </si>
+  <si>
+    <t>RQ3.1)A estratégia envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
+RQ3.2)A estratégia recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>União (Scopus, Springer, El Compendex, Web Of Science, Science Direct, ACM, IEEE)</t>
+  </si>
+  <si>
+    <t>13/460= 2,8%</t>
+  </si>
+  <si>
+    <t>13/22 = 59%</t>
   </si>
   <si>
     <t>Na SLR publicada, Scopus retornou 15 artigos. Essa quantidade totaliza com as demais das outras biblioteca 517. Em seguida, após eliminar os duplicados, o total é de 495.
@@ -662,527 +1187,17 @@
 Ao reproduzir a busca na Scopus, com o ano de publicação menor que 2016, podemos acabar selecionando artigos de meados de 2015, e a pesquisa publicada foi conduzida em agosto de 2015. Não existe uma possibilidade de selecionar o limite da busca por mês, somente por ano.
 Ao inspecionar os artigos, um a um, nas evidências de 2015 e no retorno da busca atual, temos o seguinte: os 18 artigos retornados em 2015 existem nessa reprodução, e mais dois artigos. Um desses novos faz parte do seed set. O resultado da precisão em 2015 não incluiria o artigo de (Martins 2008) do seed set. Os dois artigos que apareceram a mais são dos mesmos autores. No total, temos 7 encontrados no seed set em 2015, e 8 encontrados atualmente.
 A string de busca na Scopus, segundo a publicação, precisa ter no início dela, title-abs-key. Ao executar sem essa restrição, conseguimos retornar atualmente 402 (sem limitar o ano de  2016 temos 495) e conseguimos encontrar 14 artigos do seed set.
-Ao buscar pelo nome de cada artigo na Scopus, via " ", conseguimos encontrar todos os artigos do seed set.</t>
-  </si>
-  <si>
-    <t>Resumo Cobertura</t>
-  </si>
-  <si>
-    <t>Scopus + BS</t>
-  </si>
-  <si>
-    <t>Scopus + FS</t>
-  </si>
-  <si>
-    <t>Scopus + BS + FS (Hybrid Strategy)</t>
-  </si>
-  <si>
-    <t>Resumo Backward</t>
-  </si>
-  <si>
-    <t>Qtd</t>
-  </si>
-  <si>
-    <t>Artigos do Estudo Selecionado</t>
-  </si>
-  <si>
-    <t>Encontrado na Scopus</t>
-  </si>
-  <si>
-    <t>Não encontrados na Scopus</t>
-  </si>
-  <si>
-    <t>Encontrados no Backward Snowballing - Iteração 1</t>
-  </si>
-  <si>
-    <t>Não encontrados na Iteração 1</t>
-  </si>
-  <si>
-    <t>Encontrados no Backward Snowballing - Iteração 2</t>
-  </si>
-  <si>
-    <t>Não encontrados na Iteração 2</t>
-  </si>
-  <si>
-    <t>Encontrados na Scopus + Backward Snowballing</t>
-  </si>
-  <si>
-    <t>Não encontrados</t>
-  </si>
-  <si>
-    <t>8/22 = 36%</t>
-  </si>
-  <si>
-    <t>Precision and Recall</t>
-  </si>
-  <si>
-    <t>Database Search (Scopus)</t>
-  </si>
-  <si>
-    <t>Number of papers selected</t>
-  </si>
-  <si>
-    <t>Precision (%)</t>
-  </si>
-  <si>
-    <t>Recall (%)</t>
-  </si>
-  <si>
-    <t>Backward Snowballing (Iteration 1)</t>
-  </si>
-  <si>
-    <t>Backward Snowballing (Iteration 2)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Forward Snowballing (Iteration 1)</t>
-  </si>
-  <si>
-    <t>Scopus + Backward + Forward</t>
-  </si>
-  <si>
-    <t>8/17 = 47%</t>
-  </si>
-  <si>
-    <t>Referências</t>
-  </si>
-  <si>
-    <t>wilkie2007a</t>
-  </si>
-  <si>
-    <t>becker2008a</t>
-  </si>
-  <si>
-    <t>kaneko2011a</t>
-  </si>
-  <si>
-    <t>guzmán2010a</t>
-  </si>
-  <si>
-    <t>martins2008a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plösch2011a </t>
-  </si>
-  <si>
-    <t>albuquerque2009a</t>
-  </si>
-  <si>
-    <t>reiblein1997a</t>
-  </si>
-  <si>
-    <t>2/156</t>
-  </si>
-  <si>
-    <t>0/21=</t>
-  </si>
-  <si>
-    <t>11/22 = 50%</t>
-  </si>
-  <si>
-    <t>2/22 = 9,09%</t>
-  </si>
-  <si>
-    <t>1/22 = 4,54%</t>
-  </si>
-  <si>
-    <t>10/22 = 45,45%</t>
-  </si>
-  <si>
-    <t>9/22 = 40,90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper Name </t>
-  </si>
-  <si>
-    <t>Biblioteca Digital</t>
-  </si>
-  <si>
-    <t>Ameaça à validade: 1) a busca que realizo limitada a 2015, no forward temos somente busca por filtro de até o ano de 2015. No primeiro backward, pode ser que seja eliminada alguma referencia retornada na busca e não lida. 2) As estrategias estão em loop com o repeat. 3) 
-RQ 4) A string de busca limita a uma quantidade onde o recall e precision são bons ou deveriam ser. Se eu encontrasse todos os artigos, recall alto e precision seria baixo devido ao alto esforço para ler mais de mil artigos do retorno da busca; Colocar a tag da scopus com outro nome para que fique identico ao do Francisco; As citações do ano maior que 2015 e os arquivos foram mantidos mas com o filtro não são retornados. Gerar um resumo das estratégias; O retorno no scholar de artigos em russo, jap e outros diferentes do ingles deve ser incluido ou nao (perguntar ao Leo), mas nao devera influenciar no resultado.;</t>
-  </si>
-  <si>
-    <t>1) um artigo de 2017 cita no forward um de 2015. Deve ser selecionado?
-2) Artigos selecionados no forward deveriam ser somente em ingles; Existem em russo, espanhol, japones.
-3) Tese deveria ser selecionada? Qual critério? 4)No forward de  albuquerque2009a tivemos 5 artigos( 4 existentes e 1 incluído), como eu visualizo essa informação?</t>
-  </si>
-  <si>
-    <t>JF tool</t>
-  </si>
-  <si>
-    <t>Qtd Ref encontrado no Scopus</t>
-  </si>
-  <si>
-    <t>0/128= 0</t>
-  </si>
-  <si>
-    <t>0/22=0</t>
-  </si>
-  <si>
-    <t>RQ1.1) Qual busca em biblioteca digital encontra mais artigos incluídos na lista de selecionados da SLR publicada dentre o resultado retornado na busca?
-RQ1.2) Qual busca em biblioteca digital recupera todos os artigos que estavam incluídos na lista de selecionados da SRL publicada?</t>
-  </si>
-  <si>
-    <t>Research Question 1) Qual das bibliotecas digitais utilizadas na SLR publicada é mais eficiente?</t>
-  </si>
-  <si>
-    <t>Research Questions</t>
-  </si>
-  <si>
-    <t>7/16= 43%</t>
-  </si>
-  <si>
-    <t>5/10= 50%</t>
-  </si>
-  <si>
-    <t>1/182= 0,5%</t>
-  </si>
-  <si>
-    <t>1/103= 0,98%</t>
-  </si>
-  <si>
-    <t>7/22= 31,8%</t>
-  </si>
-  <si>
-    <t>5/22= 22,7%</t>
-  </si>
-  <si>
-    <t>1/22= 4,5%</t>
-  </si>
-  <si>
-    <t>RQ2.1)A estratégia híbrida envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
-RQ2.2)A estratégia híbrida recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
-  </si>
-  <si>
-    <t>Busca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowballing </t>
-  </si>
-  <si>
-    <t>Guideline 2014</t>
-  </si>
-  <si>
-    <t>Short Paper 2017</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>Google Scholar</t>
-  </si>
-  <si>
-    <t>Código Snowballing</t>
-  </si>
-  <si>
-    <t>ID Estratégia</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Todas Bibliotecas Digitais</t>
-  </si>
-  <si>
-    <t>Estratégia Somente Busca</t>
-  </si>
-  <si>
-    <t>SFBU</t>
-  </si>
-  <si>
-    <t>S2FFBB2U</t>
-  </si>
-  <si>
-    <t>BBFF</t>
-  </si>
-  <si>
-    <t>FFBB</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>Estratégia Híbrida (Busca + Snowballing)</t>
-  </si>
-  <si>
-    <t>Research Question 3) Qual das estratégias é mais eficiente?</t>
-  </si>
-  <si>
-    <t>Research Question 2) Qual das estratégias híbridas é mais eficiente?</t>
-  </si>
-  <si>
-    <t>JF new BF 2018</t>
-  </si>
-  <si>
-    <t>JF new FB 2018</t>
-  </si>
-  <si>
-    <t>RQ2.1)A estratégia envolve analisar menos artigos quando comparada com as SLRs publicadas que conduziram buscas somente em bases de dados? Precision
-RQ2.2)A estratégia recupera todos os artigos que estavam incluídos na SLR publicada que conduziu as buscas em bases de dados? Recall.</t>
-  </si>
-  <si>
-    <t>337 mas limitado a Subdiscipline = Software Engineering and pub year 2015, temos 141</t>
-  </si>
-  <si>
-    <t>141 mas limitado a ACM temos 109.</t>
-  </si>
-  <si>
-    <t>2/22=9%</t>
-  </si>
-  <si>
-    <t>2/26= 7,6%</t>
-  </si>
-  <si>
-    <t>Alterar a estrategias guideline e short paper para primeiro executar backward.</t>
-  </si>
-  <si>
-    <t>Incluídos com o aliases - buscar com JF e remover</t>
-  </si>
-  <si>
-    <t>Utilizei a mesma query do IEEE (reduzida)</t>
-  </si>
-  <si>
-    <t>Limitado a 2015</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com.br/scholar?q=%28%28%22software+process+improvement%22%29+AND+%28%22business+goal%22%29+AND+%28%22alignment%22+OR+%22in+line+with%22%29+AND+%28%22method%22+OR+%22approach%22%29%29&amp;hl=pt-BR&amp;as_sdt=0%2C5&amp;as_ylo=&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>4/40= 10%</t>
-  </si>
-  <si>
-    <t>4/22= 18%</t>
-  </si>
-  <si>
-    <t>(Google Scholar para Guideline)</t>
-  </si>
-  <si>
-    <t>Duas páginas, cada uma com 20 resultados, organizados por relevância</t>
-  </si>
-  <si>
-    <t>3 são proceeding de conferencia.Nas evidências de Vasc. temos 18</t>
-  </si>
-  <si>
-    <t>Encontrados via busca</t>
-  </si>
-  <si>
-    <t>Encontrados via snowballing</t>
-  </si>
-  <si>
-    <t>BSB</t>
-  </si>
-  <si>
-    <t>FSB</t>
-  </si>
-  <si>
-    <t>BSB/FSB</t>
-  </si>
-  <si>
-    <t>Falso-positivo or not focus on SPI</t>
-  </si>
-  <si>
-    <t>http://ieeexplore.ieee.org/document/963369/</t>
-  </si>
-  <si>
-    <t>http://ieeexplore.ieee.org/document/1541827/</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/citation.cfm?doid=1987875.1987902</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/citation.cfm?doid=2785592.2785608</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/citation.cfm?doid=337180.337492</t>
-  </si>
-  <si>
-    <t>Busca em todas as Bibliotecas Digitais utilizadas na SLR Publicada</t>
-  </si>
-  <si>
-    <t>Busca em todas as Bibliotecas Digitais utilizadas na SLR Publicada mais Snowballing do Guideline</t>
-  </si>
-  <si>
-    <t>Busca informal no Google Scholar mais Snowballing do Guideline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busca na Scopus mais Snowballing do Short Paper </t>
-  </si>
-  <si>
-    <t>Busca na Scopus mais Snowballing do Guideline</t>
-  </si>
-  <si>
-    <t>Busca na Scopus mais Snowballing identificado pelo JF sequencia BSB-FSB.</t>
-  </si>
-  <si>
-    <t>Busca na Scopus mais Snowballing identificado pelo JF sequencia FSB-BSB.</t>
-  </si>
-  <si>
-    <t>Descrição da Estratégia</t>
-  </si>
-  <si>
-    <t>Link dos seeds set não encontrados na busca</t>
-  </si>
-  <si>
-    <t>Resumo Forward</t>
-  </si>
-  <si>
-    <t>Encontrados no Forward Snowballing - Iteração 1</t>
-  </si>
-  <si>
-    <t>Encontrados na Scopus + Forward Snowballing</t>
-  </si>
-  <si>
-    <t>Forward Snowballing (Iteration 2)</t>
-  </si>
-  <si>
-    <t>0/2=</t>
-  </si>
-  <si>
-    <t>11/((17) + (156+21) + (50+2))= 11/246 = 4,8%</t>
-  </si>
-  <si>
-    <t>1/50= 2%</t>
-  </si>
-  <si>
-    <t>2/156= 1,3%</t>
-  </si>
-  <si>
-    <t>(2/156 + 0/21) = 2/177 = 1,13%</t>
-  </si>
-  <si>
-    <t>(1/50 + 0/2) = 1/52 = 1,92%</t>
-  </si>
-  <si>
-    <t>Seed Set (Scopus)</t>
-  </si>
-  <si>
-    <t>Not found in Database Search (Scopus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Search Strategy</t>
-  </si>
-  <si>
-    <t>petersen2015a - An elicitation instrument for operationalising GQM+ Strategies (GQM+ S-EI)</t>
-  </si>
-  <si>
-    <t>basili2010a - Linking software development and business strategy through measurement'  
-trienekens2009a - Entropy based software processes improvement'</t>
-  </si>
-  <si>
-    <t>1/50</t>
-  </si>
-  <si>
-    <t>0/2</t>
-  </si>
-  <si>
-    <t>0/21</t>
-  </si>
-  <si>
-    <t>Legenda</t>
-  </si>
-  <si>
-    <t>Recuperado via string de busca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperado via busca pelo título entre aspas duplas </t>
-  </si>
-  <si>
-    <t>Total na JF tool</t>
-  </si>
-  <si>
-    <t>156 sem duplicados</t>
-  </si>
-  <si>
-    <t>Research Question 4) Qual a quantidade de artigos selecionados que a bibliotecas digital encontra através da busca direta pelo título do artigo?</t>
-  </si>
-  <si>
-    <t>F-measure (F1 Score)</t>
-  </si>
-  <si>
-    <t>Estratégia  (E5) Scopus+Snowballing ESEM SP17</t>
-  </si>
-  <si>
-    <t>Precision, Recall and F-Measure</t>
-  </si>
-  <si>
-    <t>22/22</t>
-  </si>
-  <si>
-    <t>5/22</t>
-  </si>
-  <si>
-    <t>8/22</t>
-  </si>
-  <si>
-    <t>14/22</t>
-  </si>
-  <si>
-    <t>1/22</t>
-  </si>
-  <si>
-    <t>Removido no SB</t>
-  </si>
-  <si>
-    <t>Não encontrada via busca, mas publicada por:</t>
-  </si>
-  <si>
-    <t>Encontrados/Não encontrados</t>
-  </si>
-  <si>
-    <t>Busca por Título em Cada Biblioteca Digital em 31/03/2018</t>
-  </si>
-  <si>
-    <t>18/22</t>
-  </si>
-  <si>
-    <t>Não removido no SB mas não encontrado na Busca por Biblioteca Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) Qual é o motivo da scopus nao retornar 12 dos 22 selecionados? Qual o ano de publicação, autor, local?
-6) Quais index cada biblioteca faz? Quem elas indexam? Isso talvez explique o não retorno de alguns artigos.
-</t>
-  </si>
-  <si>
-    <t>S22 (9)</t>
-  </si>
-  <si>
-    <t>S16 (9,22)</t>
-  </si>
-  <si>
-    <t>S8 (9,7)</t>
-  </si>
-  <si>
-    <t>S4 (4, 5, 9,22)</t>
-  </si>
-  <si>
-    <t>S6 (19) ok</t>
+Ao buscar pelo nome de cada artigo na Scopus, via busca por título entre aspas duplas, conseguimos encontrar todos os artigos do seed set.</t>
+  </si>
+  <si>
+    <t>Seed Set - JF tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-  </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +1288,13 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1418,7 +1440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1791,13 +1813,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1854,13 +1885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,12 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2018,14 +2037,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2200,19 +2215,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2241,6 +2246,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,6 +2309,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2298,35 +2342,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2358,45 +2387,74 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2537,7 +2595,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$26</c:f>
+              <c:f>ResearchQuestions!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2559,7 +2617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$27:$A$33</c:f>
+              <c:f>ResearchQuestions!$A$28:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2588,12 +2646,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$27:$B$33</c:f>
+              <c:f>ResearchQuestions!$B$28:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.47</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7000000000000001E-2</c:v>
@@ -2605,7 +2663,7 @@
                   <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
@@ -2622,7 +2680,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$C$26</c:f>
+              <c:f>ResearchQuestions!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2644,7 +2702,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$27:$A$33</c:f>
+              <c:f>ResearchQuestions!$A$28:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2673,18 +2731,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$C$27:$C$33</c:f>
+              <c:f>ResearchQuestions!$C$28:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.59</c:v>
@@ -2712,12 +2770,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215632776"/>
-        <c:axId val="215636696"/>
+        <c:axId val="187535672"/>
+        <c:axId val="187532144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215632776"/>
+        <c:axId val="187535672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2868,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215636696"/>
+        <c:crossAx val="187532144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2818,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215636696"/>
+        <c:axId val="187532144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2927,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215632776"/>
+        <c:crossAx val="187535672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3015,7 +3073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$26</c:f>
+              <c:f>ResearchQuestions!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3112,7 +3170,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$27:$A$33</c:f>
+              <c:f>ResearchQuestions!$A$28:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3141,12 +3199,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$27:$B$33</c:f>
+              <c:f>ResearchQuestions!$B$28:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.47</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7000000000000001E-2</c:v>
@@ -3158,7 +3216,7 @@
                   <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
@@ -3180,12 +3238,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="215637088"/>
-        <c:axId val="215633168"/>
+        <c:axId val="187529008"/>
+        <c:axId val="187531360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215637088"/>
+        <c:axId val="187529008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3333,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215633168"/>
+        <c:crossAx val="187531360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215633168"/>
+        <c:axId val="187531360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3425,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215637088"/>
+        <c:crossAx val="187529008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3510,7 +3568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$C$26</c:f>
+              <c:f>ResearchQuestions!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3586,7 +3644,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$27:$A$33</c:f>
+              <c:f>ResearchQuestions!$A$28:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3615,18 +3673,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$C$27:$C$33</c:f>
+              <c:f>ResearchQuestions!$C$28:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.59</c:v>
@@ -3654,12 +3712,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="215629640"/>
-        <c:axId val="215633952"/>
+        <c:axId val="187532928"/>
+        <c:axId val="187534888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215629640"/>
+        <c:axId val="187532928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3749,7 +3807,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215633952"/>
+        <c:crossAx val="187534888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3757,7 +3815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215633952"/>
+        <c:axId val="187534888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3899,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215629640"/>
+        <c:crossAx val="187532928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4034,7 +4092,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$74</c:f>
+              <c:f>ResearchQuestions!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4079,7 +4137,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4096,18 +4154,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$74:$D$74</c:f>
+              <c:f>ResearchQuestions!$B$48:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.47</c:v>
+                  <c:v>2.8199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.40771084337349395</c:v>
+                  <c:v>5.3827240375283081E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4118,7 +4176,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$75</c:f>
+              <c:f>ResearchQuestions!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4163,7 +4221,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4180,18 +4238,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$75:$D$75</c:f>
+              <c:f>ResearchQuestions!$B$49:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.67E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>3.3215739484396205E-2</c:v>
+                  <c:v>3.269098767001398E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,7 +4260,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$76</c:f>
+              <c:f>ResearchQuestions!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4247,7 +4305,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4264,18 +4322,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$76:$D$76</c:f>
+              <c:f>ResearchQuestions!$B$50:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>4.3498817966903067E-2</c:v>
+                  <c:v>4.3735857769568225E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4286,7 +4344,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$77</c:f>
+              <c:f>ResearchQuestions!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4331,7 +4389,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4348,18 +4406,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$77:$D$77</c:f>
+              <c:f>ResearchQuestions!$B$51:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>2.93E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>5.5282714054927302E-2</c:v>
+                  <c:v>5.5827547230744394E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4370,7 +4428,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$78</c:f>
+              <c:f>ResearchQuestions!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4415,7 +4473,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4432,18 +4490,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$78:$D$78</c:f>
+              <c:f>ResearchQuestions!$B$52:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>4.4699999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>8.0882352941176461E-2</c:v>
+                  <c:v>8.2063521204332662E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,7 +4512,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$79</c:f>
+              <c:f>ResearchQuestions!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4499,7 +4557,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4516,18 +4574,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$79:$D$79</c:f>
+              <c:f>ResearchQuestions!$B$53:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>3.5099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>6.608E-2</c:v>
+                  <c:v>6.6258198688209882E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,7 +4596,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>ResearchQuestions!$A$80</c:f>
+              <c:f>ResearchQuestions!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4586,7 +4644,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ResearchQuestions!$B$73:$D$73</c:f>
+              <c:f>ResearchQuestions!$B$47:$D$47</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4603,7 +4661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResearchQuestions!$B$80:$D$80</c:f>
+              <c:f>ResearchQuestions!$B$54:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4630,12 +4688,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="215630424"/>
-        <c:axId val="215631208"/>
+        <c:axId val="187533712"/>
+        <c:axId val="187535280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="215630424"/>
+        <c:axId val="187533712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,7 +4733,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215631208"/>
+        <c:crossAx val="187535280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4683,7 +4741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215631208"/>
+        <c:axId val="187535280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4789,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215630424"/>
+        <c:crossAx val="187533712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4884,7 +4942,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scopus!$B$40</c:f>
+              <c:f>Scopus!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4991,7 +5049,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scopus!$A$41:$A$44</c:f>
+              <c:f>Scopus!$A$39:$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5011,7 +5069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scopus!$B$41:$B$44</c:f>
+              <c:f>Scopus!$B$39:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5041,8 +5099,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="291662024"/>
-        <c:axId val="291658104"/>
+        <c:axId val="187531752"/>
+        <c:axId val="187528616"/>
         <c:axId val="0"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -5167,7 +5225,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Scopus!$A$41:$A$44</c15:sqref>
+                          <c15:sqref>Scopus!$A$39:$A$42</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5212,7 +5270,7 @@
         </c:extLst>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="291662024"/>
+        <c:axId val="187531752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5311,7 +5369,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291658104"/>
+        <c:crossAx val="187528616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5319,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291658104"/>
+        <c:axId val="187528616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5399,7 +5457,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291662024"/>
+        <c:crossAx val="187531752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8088,15 +8146,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>23810</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>35717</xdr:rowOff>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8118,15 +8176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>654844</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>15475</xdr:rowOff>
+      <xdr:colOff>521494</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>110725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1262062</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>1128712</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8148,15 +8206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1416842</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:colOff>1359693</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8178,15 +8236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>488155</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>86913</xdr:rowOff>
+      <xdr:colOff>102921</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>69849</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8213,15 +8271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>105836</xdr:rowOff>
+      <xdr:colOff>179915</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:colOff>539748</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>148168</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8519,22 +8577,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="174"/>
+      <c r="B1" s="167"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="176"/>
+      <c r="B2" s="169"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="176"/>
+      <c r="B3" s="169"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -8569,10 +8627,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="178"/>
+      <c r="B8" s="171"/>
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -8639,10 +8697,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8650,32 +8708,118 @@
     <col min="1" max="1" width="131.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>347</v>
-      </c>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="212" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="212"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="227"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="227"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="227"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="227"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="227"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="227"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="227"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="227"/>
+      <c r="B20" s="227"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:G20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -8685,7 +8829,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8695,10 +8839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="184"/>
+      <c r="A1" s="176" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="177"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -8709,38 +8853,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="228" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="230" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="231"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="173"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="174" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30"/>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="180"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="182"/>
+      <c r="B7" s="175"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -8805,14 +8949,14 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.7109375" style="9" customWidth="1"/>
@@ -8822,16 +8966,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="187"/>
+      <c r="A1" s="178" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
@@ -8840,22 +8984,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>154</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>114</v>
@@ -8864,206 +9008,206 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="56">
         <v>15</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>20</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="D3" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="30">
         <v>17</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>160</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="30">
         <v>10</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <v>10</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30">
         <v>10</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>155</v>
+      <c r="G4" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>13</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <v>20</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="30">
         <v>16</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>155</v>
+      <c r="F5" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="35">
         <v>100</v>
       </c>
-      <c r="C6" s="89" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="C6" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="35">
         <v>103</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="33" t="s">
         <v>112</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="30">
         <v>43</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <v>26</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30">
         <v>26</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="35">
         <v>141</v>
       </c>
-      <c r="C8" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="C8" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="35">
         <v>128</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="35" t="s">
+      <c r="F8" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>113</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="30">
         <v>195</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>189</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="30">
         <v>182</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>155</v>
+      <c r="F9" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="97">
+      <c r="B10" s="89">
         <f>SUM(B3:B9)</f>
         <v>517</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="97">
+      <c r="C10" s="89"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="89">
         <f>SUM(E3:E9)</f>
         <v>482</v>
       </c>
@@ -9192,7 +9336,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="101" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="93" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.5703125" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="4" customWidth="1"/>
@@ -9200,17 +9344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="181" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>34</v>
@@ -9226,16 +9370,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="157" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -9243,41 +9387,41 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="157">
         <v>2007</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="155" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="157">
         <v>2008</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="157" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -9286,109 +9430,109 @@
       <c r="C6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="157">
         <v>2015</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="167">
+      <c r="D7" s="157">
         <v>2011</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="155" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="167">
+      <c r="D8" s="157">
         <v>2010</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="157">
+        <v>2009</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="167">
-        <v>2009</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="157" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="167">
+      <c r="D10" s="157">
         <v>2010</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="157">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="167" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="167">
-        <v>2010</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="167">
+      <c r="D12" s="157">
         <v>1999</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -9396,126 +9540,126 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="155" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="167">
+      <c r="D13" s="157">
         <v>2005</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="157">
+        <v>2008</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="167" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="167">
-        <v>2008</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="167">
+      <c r="D15" s="157">
         <v>2011</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="155" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="167">
+      <c r="D16" s="157">
         <v>2009</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="157">
+        <v>1997</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="167" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="167" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="167">
-        <v>1997</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="155" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="167">
+      <c r="D18" s="157">
         <v>2010</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="157" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="167">
+      <c r="D19" s="157">
         <v>2005</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="157" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -9524,15 +9668,15 @@
       <c r="C20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="167">
+      <c r="D20" s="157">
         <v>2011</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="169" t="s">
+      <c r="A21" s="157" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -9541,15 +9685,15 @@
       <c r="C21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="167">
+      <c r="D21" s="157">
         <v>2008</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="157" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -9558,15 +9702,15 @@
       <c r="C22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="167">
+      <c r="D22" s="157">
         <v>2015</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="157" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -9575,7 +9719,7 @@
       <c r="C23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="167">
+      <c r="D23" s="157">
         <v>2000</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -9583,7 +9727,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="157" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -9592,23 +9736,23 @@
       <c r="C24" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="167">
+      <c r="D24" s="157">
         <v>2010</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>126</v>
+      <c r="A27" s="220" t="s">
+        <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="170"/>
+      <c r="A30" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9620,10 +9764,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:G32"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9637,870 +9781,764 @@
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="182" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+    </row>
+    <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="186" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="185" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+    </row>
+    <row r="5" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="187" t="s">
+        <v>353</v>
+      </c>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="188"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="188"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="194" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-    </row>
-    <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="D9" s="188"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="188"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="197" t="s">
+      <c r="C11" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="188"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="188"/>
+    </row>
+    <row r="13" spans="1:19" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="224" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="189"/>
+    </row>
+    <row r="14" spans="1:19" s="86" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="225" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="182" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+    </row>
+    <row r="16" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="185" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-    </row>
-    <row r="5" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="78" t="s">
+      <c r="B17" s="185"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="81">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F19" s="80">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="85">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F20" s="80">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="81">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F21" s="80">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="81">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F22" s="80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="D23" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="81">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F23" s="80">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="B24" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="81">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F24" s="80">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="182" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="186" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="198" t="s">
-        <v>260</v>
-      </c>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="C27" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="193" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="81">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C28" s="80">
+        <v>0.59</v>
+      </c>
+      <c r="D28" s="221" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="222"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="223"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="81">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C29" s="80">
+        <v>0.77</v>
+      </c>
+      <c r="D29" s="190" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="192"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="85">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C30" s="80">
+        <v>0.41</v>
+      </c>
+      <c r="D30" s="190" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="192"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="81">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C31" s="80">
+        <v>0.59</v>
+      </c>
+      <c r="D31" s="190" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="192"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="81">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C32" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="190" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="192"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="81">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C33" s="80">
+        <v>0.59</v>
+      </c>
+      <c r="D33" s="190" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="192"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="81">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C34" s="80">
+        <v>0.54</v>
+      </c>
+      <c r="D34" s="190" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="192"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="182" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="151" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="199"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="B39" s="151" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="199"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+      <c r="B40" s="151" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="199"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="B41" s="151" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="58" t="s">
+      <c r="B42" s="151" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="194" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="194"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="150">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="C48" s="150">
+        <v>0.59</v>
+      </c>
+      <c r="D48" s="226">
+        <f>2*((B48*C48)/(B48+C48))</f>
+        <v>5.3827240375283081E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="150">
+        <v>1.67E-2</v>
+      </c>
+      <c r="C49" s="150">
+        <v>0.77</v>
+      </c>
+      <c r="D49" s="226">
+        <f t="shared" ref="D49:D54" si="0">2*((B49*C49)/(B49+C49))</f>
+        <v>3.269098767001398E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="199"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="199"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="200"/>
-    </row>
-    <row r="13" spans="1:19" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-    </row>
-    <row r="15" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="193" t="s">
+      <c r="B50" s="150">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="C50" s="150">
+        <v>0.41</v>
+      </c>
+      <c r="D50" s="226">
+        <f t="shared" si="0"/>
+        <v>4.3735857769568225E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="197" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="B51" s="150">
+        <v>2.93E-2</v>
+      </c>
+      <c r="C51" s="150">
+        <v>0.59</v>
+      </c>
+      <c r="D51" s="226">
+        <f t="shared" si="0"/>
+        <v>5.5827547230744394E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B52" s="150">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="C52" s="150">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="226">
+        <f>2*((B52*C52)/(B52+C52))</f>
+        <v>8.2063521204332662E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" s="61" t="s">
+      <c r="B53" s="150">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="C53" s="150">
+        <v>0.59</v>
+      </c>
+      <c r="D53" s="226">
+        <f t="shared" si="0"/>
+        <v>6.6258198688209882E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="87">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F18" s="86">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="93">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F19" s="86">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="87">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F20" s="86">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="87">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F21" s="86">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="87">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F22" s="86">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="87">
+      <c r="B54" s="150">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F23" s="86">
+      <c r="C54" s="150">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-    </row>
-    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="193" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="201" t="s">
-        <v>307</v>
-      </c>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27" s="87">
-        <v>0.47</v>
-      </c>
-      <c r="C27" s="86">
-        <v>0.36</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="87">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C28" s="86">
-        <v>0.72</v>
-      </c>
-      <c r="D28" s="189" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="191"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="B29" s="93">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C29" s="86">
-        <v>0.4</v>
-      </c>
-      <c r="D29" s="189" t="s">
-        <v>302</v>
-      </c>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="191"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="87">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C30" s="86">
-        <v>0.59</v>
-      </c>
-      <c r="D30" s="189" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="191"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="87">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C31" s="86">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="189" t="s">
-        <v>303</v>
-      </c>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="191"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="87">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C32" s="86">
-        <v>0.59</v>
-      </c>
-      <c r="D32" s="189" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="191"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="87">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C33" s="86">
-        <v>0.54</v>
-      </c>
-      <c r="D33" s="189" t="s">
-        <v>306</v>
-      </c>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="191"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="194" t="s">
-        <v>332</v>
-      </c>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="116" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="163" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="163" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="163" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="163" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="163" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="163" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="126" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="163" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="192" t="s">
-        <v>335</v>
-      </c>
-      <c r="B63" s="192"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="192"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="B64" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="115" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="124" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" s="158">
-        <v>0.47</v>
-      </c>
-      <c r="C65" s="158">
-        <v>0.36</v>
-      </c>
-      <c r="D65" s="120">
-        <f>2*((B65*C65)/(B65+C65))</f>
-        <v>0.40771084337349395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="124" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" s="158">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C66" s="158">
-        <v>0.72</v>
-      </c>
-      <c r="D66" s="120">
-        <f t="shared" ref="D66:D71" si="0">2*((B66*C66)/(B66+C66))</f>
-        <v>3.3215739484396205E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="159">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C67" s="158">
-        <v>0.4</v>
-      </c>
-      <c r="D67" s="120">
-        <f t="shared" si="0"/>
-        <v>4.3498817966903067E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="158">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C68" s="158">
-        <v>0.59</v>
-      </c>
-      <c r="D68" s="120">
-        <f t="shared" si="0"/>
-        <v>5.5282714054927302E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="158">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C69" s="158">
-        <v>0.5</v>
-      </c>
-      <c r="D69" s="120">
-        <f t="shared" si="0"/>
-        <v>8.0882352941176461E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="124" t="s">
-        <v>255</v>
-      </c>
-      <c r="B70" s="158">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C70" s="158">
-        <v>0.59</v>
-      </c>
-      <c r="D70" s="162">
-        <f t="shared" si="0"/>
-        <v>6.608E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="B71" s="158">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C71" s="158">
-        <v>0.54</v>
-      </c>
-      <c r="D71" s="120">
+      <c r="D54" s="226">
         <f t="shared" si="0"/>
         <v>6.9254766031195833E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="B73" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="116" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="124" t="s">
-        <v>260</v>
-      </c>
-      <c r="B74" s="160">
-        <v>0.47</v>
-      </c>
-      <c r="C74" s="160">
-        <v>0.36</v>
-      </c>
-      <c r="D74" s="161">
-        <f>2*((B74*C74)/(B74+C74))</f>
-        <v>0.40771084337349395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="124" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" s="160">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C75" s="160">
-        <v>0.72</v>
-      </c>
-      <c r="D75" s="161">
-        <f t="shared" ref="D75:D80" si="1">2*((B75*C75)/(B75+C75))</f>
-        <v>3.3215739484396205E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="B76" s="160">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C76" s="160">
-        <v>0.4</v>
-      </c>
-      <c r="D76" s="161">
-        <f t="shared" si="1"/>
-        <v>4.3498817966903067E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="B77" s="160">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C77" s="160">
-        <v>0.59</v>
-      </c>
-      <c r="D77" s="161">
-        <f t="shared" si="1"/>
-        <v>5.5282714054927302E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="B78" s="160">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C78" s="160">
-        <v>0.5</v>
-      </c>
-      <c r="D78" s="161">
-        <f t="shared" si="1"/>
-        <v>8.0882352941176461E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="124" t="s">
-        <v>255</v>
-      </c>
-      <c r="B79" s="160">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C79" s="160">
-        <v>0.59</v>
-      </c>
-      <c r="D79" s="161">
-        <f t="shared" si="1"/>
-        <v>6.608E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="B80" s="160">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C80" s="160">
-        <v>0.54</v>
-      </c>
-      <c r="D80" s="161">
-        <f>2*((B80*C80)/(B80+C80))</f>
-        <v>6.9254766031195833E-2</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D6:D13"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A35:I35"/>
     <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A26:I26"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D27:G27"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10510,19 +10548,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="48.28515625" customWidth="1"/>
@@ -10530,892 +10568,856 @@
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="196" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52">
+        <v>20</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52">
+        <v>24</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52">
+        <v>11</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="73">
+        <v>44</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52">
+        <v>14</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52">
+        <v>8</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52">
+        <v>27</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52">
+        <v>14</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="74">
+        <f>SUM(E3:E24)</f>
+        <v>162</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="139"/>
+      <c r="H27" s="195" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="140" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="H28" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" s="52">
+        <v>22</v>
+      </c>
+      <c r="J28" s="64"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="199" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="201"/>
+      <c r="H29" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="52">
+        <v>17</v>
+      </c>
+      <c r="J29" s="51"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="I30" s="51">
+        <v>8</v>
+      </c>
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="202" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="203"/>
+      <c r="C31" s="71"/>
+      <c r="H31" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="I31" s="51">
+        <v>14</v>
+      </c>
+      <c r="J31" s="51"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="H33" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="B34" s="117" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="111"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="204" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="56" t="s">
+      <c r="B35" s="206" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="111"/>
+      <c r="H35" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="205"/>
+      <c r="B36" s="207"/>
+      <c r="D36" s="111"/>
+      <c r="H36" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D37" s="111"/>
+      <c r="H37" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="147" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="146">
+        <v>0.36</v>
+      </c>
+      <c r="H39" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="B40" s="146">
+        <v>0.45</v>
+      </c>
+      <c r="H40" s="125" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="119" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" s="117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="146">
+        <v>0.41</v>
+      </c>
+      <c r="H41" s="143" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" s="134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="39">
         <v>22</v>
       </c>
-      <c r="B5" s="74" t="s">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H44" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H45" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="39">
+        <v>14</v>
+      </c>
+      <c r="J45" s="111"/>
+    </row>
+    <row r="46" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="J46" s="197" t="s">
+        <v>314</v>
+      </c>
+      <c r="K46" s="197"/>
+      <c r="L46" s="197"/>
+      <c r="M46" s="197"/>
+      <c r="N46" s="197"/>
+      <c r="O46" s="197"/>
+      <c r="P46" s="197"/>
+      <c r="Q46" s="197"/>
+      <c r="R46" s="197"/>
+      <c r="S46" s="197"/>
+      <c r="T46" s="197"/>
+      <c r="U46" s="197"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="120"/>
+      <c r="H47" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="41">
+        <v>12</v>
+      </c>
+      <c r="J47" s="111"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="145"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="111"/>
+      <c r="H48" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H49" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="43"/>
+    </row>
+    <row r="50" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H50" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="I50" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H52" s="131" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" s="132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H53" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" s="39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H54" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H55" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" s="39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H56" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" s="137" t="s">
+        <v>315</v>
+      </c>
+      <c r="J56" s="198" t="s">
+        <v>313</v>
+      </c>
+      <c r="K56" s="198"/>
+      <c r="L56" s="198"/>
+      <c r="M56" s="198"/>
+      <c r="N56" s="198"/>
+      <c r="O56" s="198"/>
+      <c r="P56" s="198"/>
+      <c r="Q56" s="198"/>
+      <c r="R56" s="198"/>
+      <c r="S56" s="198"/>
+      <c r="T56" s="198"/>
+      <c r="U56" s="198"/>
+    </row>
+    <row r="57" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H57" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H58" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I58" s="42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H59" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="I59" s="43"/>
+    </row>
+    <row r="60" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H60" s="126" t="s">
+        <v>302</v>
+      </c>
+      <c r="I60" s="127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="8:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" s="130">
         <v>13</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58">
-        <v>20</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58">
-        <v>24</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58">
-        <v>11</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="1:13" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="79">
-        <v>44</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="58"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58">
-        <v>14</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58">
-        <v>8</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58">
-        <v>27</v>
-      </c>
-      <c r="F18" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="83" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58">
-        <v>14</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="83" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="58"/>
-    </row>
-    <row r="21" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="58"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="58"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="58"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="80">
-        <f>SUM(E5:E26)</f>
-        <v>162</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-    </row>
-    <row r="28" spans="1:10" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="147"/>
-      <c r="H29" s="216" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="H30" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="58">
-        <v>22</v>
-      </c>
-      <c r="J30" s="70"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="203" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="205"/>
-      <c r="H31" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I31" s="58">
-        <v>17</v>
-      </c>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="I32" s="57">
-        <v>8</v>
-      </c>
-      <c r="J32" s="57"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="206" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="207"/>
-      <c r="C33" s="77"/>
-      <c r="H33" s="68" t="s">
-        <v>320</v>
-      </c>
-      <c r="I33" s="57">
-        <v>14</v>
-      </c>
-      <c r="J33" s="57"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="J34" s="58"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="119"/>
-      <c r="H35" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="J35" s="58"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="125" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="119"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-    </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="208" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="210" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="119"/>
-      <c r="H37" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="I37" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="J37" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="209"/>
-      <c r="B38" s="211"/>
-      <c r="D38" s="119"/>
-      <c r="H38" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="119"/>
-      <c r="H39" s="132" t="s">
-        <v>207</v>
-      </c>
-      <c r="I39" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="J39" s="66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="157" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="132" t="s">
-        <v>208</v>
-      </c>
-      <c r="I40" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="J40" s="66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="154">
-        <v>0.36</v>
-      </c>
-      <c r="H41" s="133" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="J41" s="66" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="154">
-        <v>0.45</v>
-      </c>
-      <c r="H42" s="133" t="s">
-        <v>312</v>
-      </c>
-      <c r="I42" s="127" t="s">
-        <v>313</v>
-      </c>
-      <c r="J42" s="125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="154">
-        <v>0.41</v>
-      </c>
-      <c r="H43" s="151" t="s">
-        <v>211</v>
-      </c>
-      <c r="I43" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="J43" s="58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="154">
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="141" t="s">
-        <v>190</v>
-      </c>
-      <c r="I44" s="142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H46" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H47" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="42">
-        <v>14</v>
-      </c>
-      <c r="J47" s="119"/>
-    </row>
-    <row r="48" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="144" t="s">
-        <v>222</v>
-      </c>
-      <c r="J48" s="218" t="s">
-        <v>323</v>
-      </c>
-      <c r="K48" s="218"/>
-      <c r="L48" s="218"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="218"/>
-      <c r="O48" s="218"/>
-      <c r="P48" s="218"/>
-      <c r="Q48" s="218"/>
-      <c r="R48" s="218"/>
-      <c r="S48" s="218"/>
-      <c r="T48" s="218"/>
-      <c r="U48" s="218"/>
-    </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="128"/>
-      <c r="H49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="I49" s="44">
-        <v>12</v>
-      </c>
-      <c r="J49" s="119"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="153"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="119"/>
-      <c r="H50" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H51" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="46"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H52" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="137">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H54" s="139" t="s">
-        <v>309</v>
-      </c>
-      <c r="I54" s="140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H55" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="I55" s="42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H56" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H57" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="I57" s="42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H58" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="I58" s="145" t="s">
-        <v>324</v>
-      </c>
-      <c r="J58" s="202" t="s">
-        <v>322</v>
-      </c>
-      <c r="K58" s="202"/>
-      <c r="L58" s="202"/>
-      <c r="M58" s="202"/>
-      <c r="N58" s="202"/>
-      <c r="O58" s="202"/>
-      <c r="P58" s="202"/>
-      <c r="Q58" s="202"/>
-      <c r="R58" s="202"/>
-      <c r="S58" s="202"/>
-      <c r="T58" s="202"/>
-      <c r="U58" s="202"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="I59" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H60" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H61" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="I61" s="46"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H62" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="I62" s="135">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H63" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="I63" s="138">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="8">
+    <mergeCell ref="J56:U56"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="J48:U48"/>
-    <mergeCell ref="J58:U58"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="J46:U46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11427,47 +11429,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="119" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="119" customWidth="1"/>
+    <col min="1" max="1" width="12" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="111" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="111" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="119" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="119" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="119" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="119" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="119" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="119"/>
-    <col min="11" max="11" width="26.140625" style="101" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="111" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="111" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="111" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="111" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="111" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="111"/>
+    <col min="11" max="11" width="26.140625" style="93" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20" style="119" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="119"/>
+    <col min="13" max="13" width="20" style="111" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
+      <c r="A1" s="208" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>34</v>
@@ -11482,314 +11484,314 @@
         <v>37</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="105" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="I2" s="105" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="K2" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="L2" s="105" t="s">
-        <v>342</v>
-      </c>
-      <c r="M2" s="118" t="s">
-        <v>308</v>
+        <v>146</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="J2" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="110" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="115" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="70">
         <v>25</v>
       </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="172" t="s">
-        <v>346</v>
-      </c>
-      <c r="L3" s="112" t="s">
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="160" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="113" t="s">
-        <v>295</v>
+      <c r="M3" s="105" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="115">
         <v>2007</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="76">
+        <v>128</v>
+      </c>
+      <c r="F4" s="70">
         <v>20</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="70">
         <v>20</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="112">
         <v>1</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="123"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="92" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="115">
         <v>2008</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="76">
+        <v>129</v>
+      </c>
+      <c r="F5" s="70">
         <v>24</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="70">
         <v>24</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="112">
         <v>1</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="123"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="224" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="165" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="96" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="115">
         <v>2015</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="76">
+        <v>130</v>
+      </c>
+      <c r="F6" s="70">
         <v>57</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120">
+      <c r="G6" s="70"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112">
         <v>1</v>
       </c>
-      <c r="J6" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="K6" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L6" s="123"/>
+      <c r="J6" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="115">
         <v>2011</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="57">
+        <v>127</v>
+      </c>
+      <c r="F7" s="51">
         <v>11</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="51">
         <v>11</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="112">
         <v>1</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="123"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="164" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="90" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="115">
         <v>2010</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="57">
+        <v>131</v>
+      </c>
+      <c r="F8" s="51">
         <v>22</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="120">
+      <c r="G8" s="51"/>
+      <c r="H8" s="112">
         <v>1</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="123"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="115"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="222" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="123">
+      <c r="C9" s="163" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="115">
         <v>2009</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="57">
+        <v>132</v>
+      </c>
+      <c r="F9" s="51">
         <v>13</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120">
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112">
         <v>1</v>
       </c>
-      <c r="J9" s="120" t="s">
-        <v>291</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="123"/>
+      <c r="J9" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221" t="s">
-        <v>350</v>
-      </c>
-      <c r="B10" s="99" t="s">
+      <c r="A10" s="162" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="91" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="115">
         <v>2010</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="57">
+        <v>133</v>
+      </c>
+      <c r="F10" s="51">
         <v>43</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="51">
         <v>43</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="112">
         <v>1</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="123"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="115">
         <v>2010</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="57">
+        <v>134</v>
+      </c>
+      <c r="F11" s="51">
         <v>11</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120">
+      <c r="G11" s="112"/>
+      <c r="H11" s="112">
         <v>1</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="123"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="115">
         <v>1999</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -11798,423 +11800,423 @@
       <c r="F12" s="2">
         <v>37</v>
       </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120">
+      <c r="G12" s="112"/>
+      <c r="H12" s="112">
         <v>1</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="123"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="101" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="115">
         <v>2005</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="57">
+        <v>135</v>
+      </c>
+      <c r="F13" s="51">
         <v>16</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L13" s="112" t="s">
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="113" t="s">
-        <v>296</v>
+      <c r="M13" s="105" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="115">
         <v>2008</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="57">
+        <v>136</v>
+      </c>
+      <c r="F14" s="51">
         <v>14</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="51">
         <v>14</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="112">
         <v>1</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L14" s="123"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="115"/>
     </row>
     <row r="15" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="90" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="115">
         <v>2011</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="57">
+        <v>137</v>
+      </c>
+      <c r="F15" s="51">
         <v>8</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="51">
         <v>8</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="112">
         <v>1</v>
       </c>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="123"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="90" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="115">
         <v>2009</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="57">
+        <v>138</v>
+      </c>
+      <c r="F16" s="51">
         <v>27</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="51">
         <v>27</v>
       </c>
-      <c r="H16" s="120">
+      <c r="H16" s="112">
         <v>1</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="123"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="115"/>
     </row>
     <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="115">
         <v>1997</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="57">
+        <v>139</v>
+      </c>
+      <c r="F17" s="51">
         <v>14</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="51">
         <v>14</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="112">
         <v>1</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="123"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="115"/>
     </row>
     <row r="18" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="224" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="103" t="s">
+      <c r="A18" s="165" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="115">
         <v>2010</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="57">
+        <v>140</v>
+      </c>
+      <c r="F18" s="51">
         <v>8</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120">
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112">
         <v>1</v>
       </c>
-      <c r="J18" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="K18" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L18" s="123"/>
+      <c r="J18" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="K18" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L18" s="115"/>
     </row>
     <row r="19" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="115">
         <v>2005</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="57">
+        <v>141</v>
+      </c>
+      <c r="F19" s="51">
         <v>15</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="120">
+      <c r="H19" s="112">
         <v>1</v>
       </c>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="123"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="99" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="123">
+      <c r="D20" s="115">
         <v>2011</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="57">
+        <v>142</v>
+      </c>
+      <c r="F20" s="51">
         <v>18</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="172" t="s">
-        <v>346</v>
-      </c>
-      <c r="L20" s="112" t="s">
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="160" t="s">
+        <v>337</v>
+      </c>
+      <c r="L20" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="113" t="s">
-        <v>297</v>
+      <c r="M20" s="105" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="222" t="s">
+      <c r="C21" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="115">
         <v>2008</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="57">
+        <v>143</v>
+      </c>
+      <c r="F21" s="51">
         <v>22</v>
       </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120">
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112">
         <v>1</v>
       </c>
-      <c r="J21" s="120" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="123"/>
+      <c r="J21" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="51"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="99" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="115">
         <v>2015</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="57">
+        <v>144</v>
+      </c>
+      <c r="F22" s="51">
         <v>15</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L22" s="112" t="s">
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L22" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="113" t="s">
-        <v>298</v>
+      <c r="M22" s="105" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="99" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="115">
         <v>2000</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="51">
         <v>11</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="172" t="s">
-        <v>346</v>
-      </c>
-      <c r="L23" s="112" t="s">
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="160" t="s">
+        <v>337</v>
+      </c>
+      <c r="L23" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="113" t="s">
-        <v>299</v>
+      <c r="M23" s="105" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="221" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="99" t="s">
+      <c r="A24" s="162" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="91" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="115">
         <v>2010</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="57">
+        <v>145</v>
+      </c>
+      <c r="F24" s="51">
         <v>33</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120">
+      <c r="G24" s="112"/>
+      <c r="H24" s="112">
         <v>1</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="L24" s="123"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L24" s="115"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="120" t="s">
+      <c r="E25" s="112" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="3">
         <f>SUM(F3:F24)</f>
         <v>464</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="112">
         <f>SUM(G3:G24)</f>
         <v>161</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="112">
         <f>SUM(H3:H24)</f>
         <v>13</v>
       </c>
-      <c r="I25" s="120">
+      <c r="I25" s="112">
         <f>SUM(I3:I24)</f>
         <v>4</v>
       </c>
-      <c r="J25" s="120"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="123"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="115"/>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
+      <c r="A31" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12234,76 +12236,140 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" style="119" customWidth="1"/>
-    <col min="5" max="7" width="15.28515625" style="119" customWidth="1"/>
-    <col min="8" max="8" width="18" style="119" customWidth="1"/>
-    <col min="9" max="9" width="42" style="119" customWidth="1"/>
-    <col min="10" max="10" width="26" style="119" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="215" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="216"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="214" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="213" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="111" customWidth="1"/>
+    <col min="5" max="7" width="15.28515625" style="111" customWidth="1"/>
+    <col min="8" max="8" width="18" style="111" customWidth="1"/>
+    <col min="9" max="9" width="42" style="111" customWidth="1"/>
+    <col min="10" max="10" width="26" style="111" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" style="119" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="119"/>
+    <col min="12" max="12" width="24.42578125" style="111" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
+      <c r="A1" s="217" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="218" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="218" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12311,26 +12377,26 @@
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="159" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="164" t="s">
+      <c r="I3" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="115" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -12352,17 +12418,17 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="123">
+      <c r="K4" s="115">
         <v>2007</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12382,17 +12448,17 @@
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="164" t="s">
+      <c r="I5" s="152" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="123">
+      <c r="K5" s="115">
         <v>2008</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -12412,17 +12478,17 @@
         <v>17</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="138" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="123">
+      <c r="K6" s="115">
         <v>2015</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12438,17 +12504,17 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="117" t="s">
+      <c r="J7" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="123">
+      <c r="K7" s="115">
         <v>2011</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12470,17 +12536,17 @@
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="153" t="s">
         <v>58</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="123">
+      <c r="K8" s="115">
         <v>2010</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12502,17 +12568,17 @@
       <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="153" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="123">
+        <v>124</v>
+      </c>
+      <c r="K9" s="115">
         <v>2009</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12534,17 +12600,17 @@
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="154" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="123">
+      <c r="K10" s="115">
         <v>2010</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12564,17 +12630,17 @@
         <v>17</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="123">
+      <c r="K11" s="115">
         <v>2010</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12596,13 +12662,13 @@
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="123">
+      <c r="K12" s="115">
         <v>1999</v>
       </c>
       <c r="L12" s="21" t="s">
@@ -12613,32 +12679,32 @@
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="159" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="171" t="s">
+      <c r="G13" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="171" t="s">
+      <c r="H13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="153" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="123">
+      <c r="K13" s="115">
         <v>2005</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12660,17 +12726,17 @@
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="165" t="s">
+      <c r="I14" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="117" t="s">
+      <c r="J14" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="123">
+      <c r="K14" s="115">
         <v>2008</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12692,17 +12758,17 @@
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="165" t="s">
+      <c r="I15" s="153" t="s">
         <v>72</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="123">
+      <c r="K15" s="115">
         <v>2011</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12724,17 +12790,17 @@
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="165" t="s">
+      <c r="I16" s="153" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="123">
+      <c r="K16" s="115">
         <v>2009</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12756,17 +12822,17 @@
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="165" t="s">
+      <c r="I17" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="117" t="s">
+      <c r="J17" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="123">
+      <c r="K17" s="115">
         <v>1997</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12786,17 +12852,17 @@
         <v>17</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="165" t="s">
+      <c r="I18" s="153" t="s">
         <v>77</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="123">
+      <c r="K18" s="115">
         <v>2010</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12818,47 +12884,47 @@
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="166" t="s">
+      <c r="I19" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="117" t="s">
+      <c r="J19" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="123">
+      <c r="K19" s="115">
         <v>2005</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="159" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="171" t="s">
+      <c r="F20" s="159" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="171" t="s">
+      <c r="H20" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="166" t="s">
+      <c r="I20" s="154" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="123">
+      <c r="K20" s="115">
         <v>2011</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,73 +12944,73 @@
       <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="166" t="s">
+      <c r="I21" s="154" t="s">
         <v>84</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="123">
+      <c r="K21" s="115">
         <v>2008</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="159" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="171" t="s">
+      <c r="F22" s="159" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="171" t="s">
+      <c r="H22" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="166" t="s">
+      <c r="I22" s="154" t="s">
         <v>86</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="123">
+      <c r="K22" s="115">
         <v>2015</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="159" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="171" t="s">
+      <c r="F23" s="159" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="171" t="s">
+      <c r="H23" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="166" t="s">
+      <c r="I23" s="154" t="s">
         <v>88</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="123">
+      <c r="K23" s="115">
         <v>2000</v>
       </c>
       <c r="L23" s="20" t="s">
@@ -12968,107 +13034,49 @@
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="166" t="s">
+      <c r="I24" s="154" t="s">
         <v>91</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="123">
+      <c r="K24" s="115">
         <v>2010</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="120" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
+      <c r="L25" s="113"/>
+    </row>
+    <row r="26" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="159"/>
+      <c r="B26" s="209" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="57">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="220" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="220"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>